--- a/project/aset/REKAP ASET ALKES (MEDIS) TERBARU.xlsx
+++ b/project/aset/REKAP ASET ALKES (MEDIS) TERBARU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Larashit\ermsimrsmu\project\aset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8563E-D25F-4578-B343-ADBAE101D197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC922D6-2588-40FC-80DC-641CFFEC4A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3593,6 +3593,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3608,28 +3632,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -3641,14 +3650,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3661,13 +3668,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4233,8 +4233,8 @@
   <dimension ref="A1:XFD572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6:M572"/>
+      <pane ySplit="5" topLeftCell="A303" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4258,57 +4258,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
       <c r="N1" s="100"/>
       <c r="O1" s="100"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="220" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
@@ -4323,36 +4323,36 @@
         <v>648</v>
       </c>
       <c r="D4" s="105"/>
-      <c r="E4" s="213" t="s">
+      <c r="E4" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="215" t="s">
+      <c r="F4" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="216" t="s">
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="211" t="s">
         <v>623</v>
       </c>
-      <c r="J4" s="216" t="s">
+      <c r="J4" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="218" t="s">
+      <c r="K4" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="L4" s="218" t="s">
+      <c r="L4" s="217" t="s">
         <v>656</v>
       </c>
-      <c r="M4" s="218" t="s">
+      <c r="M4" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="220" t="s">
+      <c r="N4" s="213" t="s">
         <v>620</v>
       </c>
-      <c r="O4" s="222" t="s">
+      <c r="O4" s="215" t="s">
         <v>621</v>
       </c>
-      <c r="P4" s="216" t="s">
+      <c r="P4" s="211" t="s">
         <v>798</v>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
-      <c r="E5" s="214"/>
+      <c r="E5" s="222"/>
       <c r="F5" s="6" t="s">
         <v>217</v>
       </c>
@@ -4371,14 +4371,14 @@
       <c r="H5" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="221"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="217"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="214"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="212"/>
     </row>
     <row r="6" spans="1:16" s="188" customFormat="1" ht="82.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="183">
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="184" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C6&amp;D6&amp;M6</f>
+        <f t="shared" ref="B6:B37" si="0">"00.03.27.1.1.1.1.A."&amp;C6&amp;D6&amp;M6</f>
         <v>00.03.27.1.1.1.1.A.1.2016</v>
       </c>
       <c r="C6" s="185">
@@ -4431,11 +4431,11 @@
     </row>
     <row r="7" spans="1:16" s="188" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="183">
-        <f t="shared" ref="A7:A63" si="0">ROW()-ROW($A$5)</f>
+        <f t="shared" ref="A7:A63" si="1">ROW()-ROW($A$5)</f>
         <v>2</v>
       </c>
       <c r="B7" s="184" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C7&amp;D7&amp;M7</f>
+        <f t="shared" si="0"/>
         <v>00.03.27.1.1.1.1.A.2.2016</v>
       </c>
       <c r="C7" s="185">
@@ -4482,11 +4482,11 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="183">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B8" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C8&amp;D8&amp;M8</f>
         <v>00.03.27.1.1.1.1.A.3.2016</v>
       </c>
       <c r="C8" s="17">
@@ -4527,11 +4527,11 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="183">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C9&amp;D9&amp;M9</f>
         <v>00.03.27.1.1.1.1.A.4.2017</v>
       </c>
       <c r="C9" s="17">
@@ -4572,11 +4572,11 @@
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="183">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C10&amp;D10&amp;M10</f>
         <v>00.03.27.1.1.1.1.A.5.2017</v>
       </c>
       <c r="C10" s="17">
@@ -4617,11 +4617,11 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="183">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C11&amp;D11&amp;M11</f>
         <v>00.03.27.1.1.1.1.A.6.2017</v>
       </c>
       <c r="C11" s="17">
@@ -4664,11 +4664,11 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="183">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C12&amp;D12&amp;M12</f>
         <v>00.03.27.1.1.1.1.A.7.2018</v>
       </c>
       <c r="C12" s="17">
@@ -4711,11 +4711,11 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="183">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C13&amp;D13&amp;M13</f>
         <v>00.03.27.1.1.1.1.A.8.2021</v>
       </c>
       <c r="C13" s="17">
@@ -4758,11 +4758,11 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="183">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C14&amp;D14&amp;M14</f>
         <v>00.03.27.1.1.1.1.A.9.2018</v>
       </c>
       <c r="C14" s="17">
@@ -4803,11 +4803,11 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="183">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C15&amp;D15&amp;M15</f>
         <v>00.03.27.1.1.1.1.A.10.2018</v>
       </c>
       <c r="C15" s="17">
@@ -4850,11 +4850,11 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="183">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C16&amp;D16&amp;M16</f>
         <v>00.03.27.1.1.1.1.A.11.2019</v>
       </c>
       <c r="C16" s="17">
@@ -4895,11 +4895,11 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="183">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C17&amp;D17&amp;M17</f>
         <v>00.03.27.1.1.1.1.A.12.2018</v>
       </c>
       <c r="C17" s="17">
@@ -4940,11 +4940,11 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="183">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C18&amp;D18&amp;M18</f>
         <v>00.03.27.1.1.1.1.A.13.2018</v>
       </c>
       <c r="C18" s="17">
@@ -4985,11 +4985,11 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="183">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B19" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C19&amp;D19&amp;M19</f>
         <v>00.03.27.1.1.1.1.A.14.2020</v>
       </c>
       <c r="C19" s="17">
@@ -5030,11 +5030,11 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="183">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B20" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C20&amp;D20&amp;M20</f>
         <v>00.03.27.1.1.1.1.A.15.2018</v>
       </c>
       <c r="C20" s="17">
@@ -5075,11 +5075,11 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="183">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B21" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C21&amp;D21&amp;M21</f>
         <v>00.03.27.1.1.1.1.A.16.2018</v>
       </c>
       <c r="C21" s="17">
@@ -5120,11 +5120,11 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="183">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B22" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C22&amp;D22&amp;M22</f>
         <v>00.03.27.1.1.1.1.A.17.2018</v>
       </c>
       <c r="C22" s="17">
@@ -5165,11 +5165,11 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="183">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B23" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C23&amp;D23&amp;M23</f>
         <v>00.03.27.1.1.1.1.A.18.2018</v>
       </c>
       <c r="C23" s="17">
@@ -5210,11 +5210,11 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="183">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B24" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C24&amp;D24&amp;M24</f>
         <v>00.03.27.1.1.1.1.A.19.2018</v>
       </c>
       <c r="C24" s="17">
@@ -5255,11 +5255,11 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="183">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B25" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C25&amp;D25&amp;M25</f>
         <v>00.03.27.1.1.1.1.A.20.2018</v>
       </c>
       <c r="C25" s="17">
@@ -5300,11 +5300,11 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="183">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B26" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C26&amp;D26&amp;M26</f>
         <v>00.03.27.1.1.1.1.A.21.2018</v>
       </c>
       <c r="C26" s="17">
@@ -5345,11 +5345,11 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="183">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B27" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C27&amp;D27&amp;M27</f>
         <v>00.03.27.1.1.1.1.A.22.2018</v>
       </c>
       <c r="C27" s="17">
@@ -5392,11 +5392,11 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="183">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B28" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C28&amp;D28&amp;M28</f>
         <v>00.03.27.1.1.1.1.A.23.2018</v>
       </c>
       <c r="C28" s="17">
@@ -5439,11 +5439,11 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="183">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B29" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C29&amp;D29&amp;M29</f>
         <v>00.03.27.1.1.1.1.A.24.2020</v>
       </c>
       <c r="C29" s="17">
@@ -5484,11 +5484,11 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="183">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B30" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C30&amp;D30&amp;M30</f>
         <v>00.03.27.1.1.1.1.A.25.2019</v>
       </c>
       <c r="C30" s="17">
@@ -5529,11 +5529,11 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="183">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B31" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C31&amp;D31&amp;M31</f>
         <v>00.03.27.1.1.1.1.A.26.2017</v>
       </c>
       <c r="C31" s="17">
@@ -5576,11 +5576,11 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="183">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B32" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C32&amp;D32&amp;M32</f>
         <v>00.03.27.1.1.1.1.A.27.2019</v>
       </c>
       <c r="C32" s="17">
@@ -5623,11 +5623,11 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="183">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B33" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C33&amp;D33&amp;M33</f>
         <v>00.03.27.1.1.1.1.A.28.2020</v>
       </c>
       <c r="C33" s="17">
@@ -5670,11 +5670,11 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="183">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B34" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C34&amp;D34&amp;M34</f>
         <v>00.03.27.1.1.1.1.A.29.2021</v>
       </c>
       <c r="C34" s="17">
@@ -5717,11 +5717,11 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="183">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B35" s="108" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B35" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C35&amp;D35&amp;M35</f>
         <v>00.03.27.1.1.1.1.A.30.2021</v>
       </c>
       <c r="C35" s="17">
@@ -5766,7 +5766,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C36&amp;D36&amp;M36</f>
+        <f t="shared" si="0"/>
         <v>00.03.27.1.1.1.1.A..2020</v>
       </c>
       <c r="C36" s="17"/>
@@ -5803,11 +5803,11 @@
     </row>
     <row r="37" spans="1:15" s="159" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="183">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="153" t="str">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B37" s="153" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C37&amp;D37&amp;M37</f>
         <v>00.03.27.1.1.1.1.A.31.2022</v>
       </c>
       <c r="C37" s="154">
@@ -5836,7 +5836,7 @@
     </row>
     <row r="38" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B38" s="58" t="s">
@@ -5878,11 +5878,11 @@
     </row>
     <row r="39" spans="1:15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B39" s="108" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C39&amp;D39&amp;M39</f>
+        <f t="shared" ref="B39:B63" si="2">"00.03.27.1.1.1.1.A."&amp;C39&amp;D39&amp;M39</f>
         <v>00.03.27.1.1.1.1.A.33.2022</v>
       </c>
       <c r="C39" s="17">
@@ -5919,11 +5919,11 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B40" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C40&amp;D40&amp;M40</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.34.2022</v>
       </c>
       <c r="C40" s="17">
@@ -5966,11 +5966,11 @@
     </row>
     <row r="41" spans="1:15" s="172" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B41" s="173" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C41&amp;D41&amp;M41</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.35.2022</v>
       </c>
       <c r="C41" s="174">
@@ -6007,11 +6007,11 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B42" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C42&amp;D42&amp;M42</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.36.2022</v>
       </c>
       <c r="C42" s="17">
@@ -6052,11 +6052,11 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B43" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C43&amp;D43&amp;M43</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.37.2022</v>
       </c>
       <c r="C43" s="17">
@@ -6093,11 +6093,11 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B44" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C44&amp;D44&amp;M44</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.38.2022</v>
       </c>
       <c r="C44" s="17">
@@ -6134,11 +6134,11 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B45" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C45&amp;D45&amp;M45</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.39.2022</v>
       </c>
       <c r="C45" s="17">
@@ -6173,11 +6173,11 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B46" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C46&amp;D46&amp;M46</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.40.2022</v>
       </c>
       <c r="C46" s="17">
@@ -6218,11 +6218,11 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B47" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C47&amp;D47&amp;M47</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.41.2022</v>
       </c>
       <c r="C47" s="17">
@@ -6263,11 +6263,11 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B48" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C48&amp;D48&amp;M48</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.42.2023</v>
       </c>
       <c r="C48" s="17">
@@ -6308,11 +6308,11 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B49" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C49&amp;D49&amp;M49</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.43.2023</v>
       </c>
       <c r="C49" s="17">
@@ -6353,11 +6353,11 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B50" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C50&amp;D50&amp;M50</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.44.2023</v>
       </c>
       <c r="C50" s="17">
@@ -6396,11 +6396,11 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B51" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C51&amp;D51&amp;M51</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.45.2023</v>
       </c>
       <c r="C51" s="17">
@@ -6437,11 +6437,11 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B52" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C52&amp;D52&amp;M52</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.46.2023</v>
       </c>
       <c r="C52" s="17">
@@ -6478,11 +6478,11 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B53" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C53&amp;D53&amp;M53</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.47.2023</v>
       </c>
       <c r="C53" s="17">
@@ -6519,11 +6519,11 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B54" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C54&amp;D54&amp;M54</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.48.2023</v>
       </c>
       <c r="C54" s="17">
@@ -6560,11 +6560,11 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B55" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C55&amp;D55&amp;M55</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.49.2023</v>
       </c>
       <c r="C55" s="17">
@@ -6601,11 +6601,11 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B56" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C56&amp;D56&amp;M56</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.50.2023</v>
       </c>
       <c r="C56" s="17">
@@ -6642,11 +6642,11 @@
     </row>
     <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B57" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C57&amp;D57&amp;M57</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.51.2023</v>
       </c>
       <c r="C57" s="17">
@@ -6683,11 +6683,11 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B58" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C58&amp;D58&amp;M58</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.52.2023</v>
       </c>
       <c r="C58" s="17">
@@ -6724,11 +6724,11 @@
     </row>
     <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B59" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C59&amp;D59&amp;M59</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.53.2023</v>
       </c>
       <c r="C59" s="17">
@@ -6765,11 +6765,11 @@
     </row>
     <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B60" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C60&amp;D60&amp;M60</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.54.2023</v>
       </c>
       <c r="C60" s="17">
@@ -6806,11 +6806,11 @@
     </row>
     <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B61" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C61&amp;D61&amp;M61</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.55.2023</v>
       </c>
       <c r="C61" s="17">
@@ -6847,11 +6847,11 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B62" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C62&amp;D62&amp;M62</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.56.2023</v>
       </c>
       <c r="C62" s="17">
@@ -6890,11 +6890,11 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="183">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B63" s="168" t="str">
-        <f>"00.03.27.1.1.1.1.A."&amp;C63&amp;D63&amp;M63</f>
+        <f t="shared" si="2"/>
         <v>00.03.27.1.1.1.1.A.57.2023</v>
       </c>
       <c r="C63" s="17">
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C64 &amp;D64&amp; M64</f>
+        <f t="shared" ref="B64:B110" si="3">"00.03.27.1.3.3.1.A."&amp; C64 &amp;D64&amp; M64</f>
         <v>00.03.27.1.3.3.1.A.1.2018</v>
       </c>
       <c r="C64" s="107">
@@ -6988,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C65 &amp;D65&amp; M65</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.2.2021</v>
       </c>
       <c r="C65" s="30">
@@ -7034,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C66 &amp;D66&amp; M66</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.3.2018</v>
       </c>
       <c r="C66" s="107">
@@ -7078,7 +7078,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C67 &amp;D67&amp; M67</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.4.2018</v>
       </c>
       <c r="C67" s="30">
@@ -7122,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C68 &amp;D68&amp; M68</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.5.2018</v>
       </c>
       <c r="C68" s="107">
@@ -7166,7 +7166,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C69 &amp;D69&amp; M69</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.6.2018</v>
       </c>
       <c r="C69" s="30">
@@ -7210,7 +7210,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C70 &amp;D70&amp; M70</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.7.2018</v>
       </c>
       <c r="C70" s="107">
@@ -7254,7 +7254,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C71 &amp;D71&amp; M71</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.8.2017</v>
       </c>
       <c r="C71" s="30">
@@ -7298,7 +7298,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C72 &amp;D72&amp; M72</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.9.2019</v>
       </c>
       <c r="C72" s="107">
@@ -7342,7 +7342,7 @@
         <v>10</v>
       </c>
       <c r="B73" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C73 &amp;D73&amp; M73</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.10.2019</v>
       </c>
       <c r="C73" s="30">
@@ -7386,7 +7386,7 @@
         <v>11</v>
       </c>
       <c r="B74" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C74 &amp;D74&amp; M74</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.11.2018</v>
       </c>
       <c r="C74" s="107">
@@ -7430,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C75 &amp;D75&amp; M75</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.12.2018</v>
       </c>
       <c r="C75" s="30">
@@ -7474,7 +7474,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C76 &amp;D76&amp; M76</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.13.2019</v>
       </c>
       <c r="C76" s="107">
@@ -7520,7 +7520,7 @@
         <v>14</v>
       </c>
       <c r="B77" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C77 &amp;D77&amp; M77</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.14.2020</v>
       </c>
       <c r="C77" s="30">
@@ -7566,7 +7566,7 @@
         <v>15</v>
       </c>
       <c r="B78" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C78 &amp;D78&amp; M78</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.15.2020</v>
       </c>
       <c r="C78" s="107">
@@ -7612,7 +7612,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C79 &amp;D79&amp; M79</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.16.2019</v>
       </c>
       <c r="C79" s="30">
@@ -7656,7 +7656,7 @@
         <v>17</v>
       </c>
       <c r="B80" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C80 &amp;D80&amp; M80</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.17.2019</v>
       </c>
       <c r="C80" s="107">
@@ -7702,7 +7702,7 @@
         <v>18</v>
       </c>
       <c r="B81" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C81 &amp;D81&amp; M81</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.18.2017</v>
       </c>
       <c r="C81" s="30">
@@ -7746,7 +7746,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C82 &amp;D82&amp; M82</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.19.2018</v>
       </c>
       <c r="C82" s="107">
@@ -7792,7 +7792,7 @@
         <v>20</v>
       </c>
       <c r="B83" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C83 &amp;D83&amp; M83</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.20.2018</v>
       </c>
       <c r="C83" s="30">
@@ -7838,7 +7838,7 @@
         <v>21</v>
       </c>
       <c r="B84" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C84 &amp;D84&amp; M84</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.21.2018</v>
       </c>
       <c r="C84" s="107">
@@ -7884,7 +7884,7 @@
         <v>22</v>
       </c>
       <c r="B85" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C85 &amp;D85&amp; M85</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.22.2018</v>
       </c>
       <c r="C85" s="30">
@@ -7930,7 +7930,7 @@
         <v>23</v>
       </c>
       <c r="B86" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C86 &amp;D86&amp; M86</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.23.2018</v>
       </c>
       <c r="C86" s="107">
@@ -7974,7 +7974,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C87 &amp;D87&amp; M87</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.24.2018</v>
       </c>
       <c r="C87" s="30">
@@ -8018,7 +8018,7 @@
         <v>26</v>
       </c>
       <c r="B88" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C88 &amp;D88&amp; M88</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.26.2020</v>
       </c>
       <c r="C88" s="30">
@@ -8064,7 +8064,7 @@
         <v>27</v>
       </c>
       <c r="B89" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C89 &amp;D89&amp; M89</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.27.2021</v>
       </c>
       <c r="C89" s="107">
@@ -8110,7 +8110,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C90 &amp;D90&amp; M90</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.28.2018</v>
       </c>
       <c r="C90" s="30">
@@ -8154,7 +8154,7 @@
         <v>29</v>
       </c>
       <c r="B91" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C91 &amp;D91&amp; M91</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.29.2019</v>
       </c>
       <c r="C91" s="107">
@@ -8198,7 +8198,7 @@
         <v>30</v>
       </c>
       <c r="B92" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C92 &amp;D92&amp; M92</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.30.2020</v>
       </c>
       <c r="C92" s="30">
@@ -8242,7 +8242,7 @@
         <v>31</v>
       </c>
       <c r="B93" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C93 &amp;D93&amp; M93</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.31.2021</v>
       </c>
       <c r="C93" s="107">
@@ -8286,7 +8286,7 @@
         <v>32</v>
       </c>
       <c r="B94" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C94 &amp;D94&amp; M94</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.32.2022</v>
       </c>
       <c r="C94" s="107">
@@ -8330,7 +8330,7 @@
         <v>33</v>
       </c>
       <c r="B95" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C95 &amp;D95&amp; M95</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.33.2022</v>
       </c>
       <c r="C95" s="107">
@@ -8374,7 +8374,7 @@
         <v>34</v>
       </c>
       <c r="B96" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C96 &amp;D96&amp; M96</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.34.2022</v>
       </c>
       <c r="C96" s="107">
@@ -8420,7 +8420,7 @@
         <v>35</v>
       </c>
       <c r="B97" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C97 &amp;D97&amp; M97</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.35.2022</v>
       </c>
       <c r="C97" s="107">
@@ -8466,7 +8466,7 @@
         <v>36</v>
       </c>
       <c r="B98" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C98 &amp;D98&amp; M98</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.36.2021</v>
       </c>
       <c r="C98" s="128">
@@ -8509,7 +8509,7 @@
         <v>37</v>
       </c>
       <c r="B99" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C99 &amp;D99&amp; M99</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.37.2022</v>
       </c>
       <c r="C99" s="180">
@@ -8555,7 +8555,7 @@
         <v>38</v>
       </c>
       <c r="B100" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C100 &amp;D100&amp; M100</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.38.2022</v>
       </c>
       <c r="C100" s="180">
@@ -8595,7 +8595,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C101 &amp;D101&amp; M101</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.39.2022</v>
       </c>
       <c r="C101" s="180">
@@ -8635,7 +8635,7 @@
         <v>40</v>
       </c>
       <c r="B102" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C102 &amp;D102&amp; M102</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.40.2020</v>
       </c>
       <c r="C102" s="180">
@@ -8679,7 +8679,7 @@
         <v>41</v>
       </c>
       <c r="B103" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C103 &amp;D103&amp; M103</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.41.2020</v>
       </c>
       <c r="C103" s="180">
@@ -8723,7 +8723,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C104 &amp;D104&amp; M104</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.42.2022</v>
       </c>
       <c r="C104" s="180">
@@ -8769,7 +8769,7 @@
         <v>43</v>
       </c>
       <c r="B105" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C105 &amp;D105&amp; M105</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.43.2022</v>
       </c>
       <c r="C105" s="180">
@@ -8815,7 +8815,7 @@
         <v>44</v>
       </c>
       <c r="B106" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C106 &amp;D106&amp; M106</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.44.2023</v>
       </c>
       <c r="C106" s="180">
@@ -8859,7 +8859,7 @@
         <v>44</v>
       </c>
       <c r="B107" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C107 &amp;D107&amp; M107</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.45.2023</v>
       </c>
       <c r="C107" s="180">
@@ -8903,7 +8903,7 @@
         <v>44</v>
       </c>
       <c r="B108" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C108 &amp;D108&amp; M108</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.46.2023</v>
       </c>
       <c r="C108" s="180">
@@ -8947,7 +8947,7 @@
         <v>44</v>
       </c>
       <c r="B109" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C109 &amp;D109&amp; M109</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.47.2023</v>
       </c>
       <c r="C109" s="180">
@@ -8991,7 +8991,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="25" t="str">
-        <f>"00.03.27.1.3.3.1.A."&amp; C110 &amp;D110&amp; M110</f>
+        <f t="shared" si="3"/>
         <v>00.03.27.1.3.3.1.A.48.2023</v>
       </c>
       <c r="C110" s="180">
@@ -9035,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C111&amp;D111&amp;M111</f>
+        <f t="shared" ref="B111:B118" si="4">"00.03.27.2.1.1.7.A."&amp;C111&amp;D111&amp;M111</f>
         <v>00.03.27.2.1.1.7.A.1.2021</v>
       </c>
       <c r="C111" s="41">
@@ -9081,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C112&amp;D112&amp;M112</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.2.2018</v>
       </c>
       <c r="C112" s="21">
@@ -9127,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C113&amp;D113&amp;M113</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.3.2019</v>
       </c>
       <c r="C113" s="41">
@@ -9171,7 +9171,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C114&amp;D114&amp;M114</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.4.2019</v>
       </c>
       <c r="C114" s="21">
@@ -9215,7 +9215,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C115&amp;D115&amp;M115</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.5.2021</v>
       </c>
       <c r="C115" s="41">
@@ -9259,7 +9259,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C116&amp;D116&amp;M116</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.6.2021</v>
       </c>
       <c r="C116" s="21">
@@ -9303,7 +9303,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C117&amp;D117&amp;M117</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.7.2021</v>
       </c>
       <c r="C117" s="41">
@@ -9347,7 +9347,7 @@
         <v>37</v>
       </c>
       <c r="B118" s="116" t="str">
-        <f>"00.03.27.2.1.1.7.A."&amp;C118&amp;D118&amp;M118</f>
+        <f t="shared" si="4"/>
         <v>00.03.27.2.1.1.7.A.37.2019</v>
       </c>
       <c r="C118" s="41">
@@ -9703,7 +9703,7 @@
         <v>15</v>
       </c>
       <c r="B126" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C126&amp;D126&amp;M126</f>
+        <f t="shared" ref="B126:B134" si="5">"00.03.27.2.1.1.11.A."&amp;C126&amp;D126&amp;M126</f>
         <v>00.03.27.2.1.1.11.A.15.2020</v>
       </c>
       <c r="C126" s="41">
@@ -9747,7 +9747,7 @@
         <v>16</v>
       </c>
       <c r="B127" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C127&amp;D127&amp;M127</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.16.2020</v>
       </c>
       <c r="C127" s="21">
@@ -9791,7 +9791,7 @@
         <v>17</v>
       </c>
       <c r="B128" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C128&amp;D128&amp;M128</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.17.2020</v>
       </c>
       <c r="C128" s="41">
@@ -9837,7 +9837,7 @@
         <v>18</v>
       </c>
       <c r="B129" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C129&amp;D129&amp;M129</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.18.2020</v>
       </c>
       <c r="C129" s="21">
@@ -9883,7 +9883,7 @@
         <v>19</v>
       </c>
       <c r="B130" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C130&amp;D130&amp;M130</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.19.2020</v>
       </c>
       <c r="C130" s="41">
@@ -9929,7 +9929,7 @@
         <v>20</v>
       </c>
       <c r="B131" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C131&amp;D131&amp;M131</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.20.2020</v>
       </c>
       <c r="C131" s="21">
@@ -9973,7 +9973,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C132&amp;D132&amp;M132</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.21.2020</v>
       </c>
       <c r="C132" s="41">
@@ -10019,7 +10019,7 @@
         <v>22</v>
       </c>
       <c r="B133" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C133&amp;D133&amp;M133</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.22.2021</v>
       </c>
       <c r="C133" s="21">
@@ -10065,7 +10065,7 @@
         <v>23</v>
       </c>
       <c r="B134" s="116" t="str">
-        <f>"00.03.27.2.1.1.11.A."&amp;C134&amp;D134&amp;M134</f>
+        <f t="shared" si="5"/>
         <v>00.03.27.2.1.1.11.A.23.2020</v>
       </c>
       <c r="C134" s="41">
@@ -10687,7 +10687,7 @@
         <v>38</v>
       </c>
       <c r="B148" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C148 &amp;D148&amp;M148</f>
+        <f t="shared" ref="B148:B170" si="6">"00.03.27.2.1.1.1.A." &amp;C148 &amp;D148&amp;M148</f>
         <v>00.03.27.2.1.1.1.A.38.2021</v>
       </c>
       <c r="C148" s="21">
@@ -10731,7 +10731,7 @@
         <v>39</v>
       </c>
       <c r="B149" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C149 &amp;D149&amp;M149</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.39.2020</v>
       </c>
       <c r="C149" s="41">
@@ -10775,7 +10775,7 @@
         <v>40</v>
       </c>
       <c r="B150" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C150 &amp;D150&amp;M150</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.40.2019</v>
       </c>
       <c r="C150" s="21">
@@ -10821,7 +10821,7 @@
         <v>41</v>
       </c>
       <c r="B151" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C151 &amp;D151&amp;M151</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.41.2019</v>
       </c>
       <c r="C151" s="41">
@@ -10867,7 +10867,7 @@
         <v>42</v>
       </c>
       <c r="B152" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C152 &amp;D152&amp;M152</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.42.2020</v>
       </c>
       <c r="C152" s="21">
@@ -10913,7 +10913,7 @@
         <v>43</v>
       </c>
       <c r="B153" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C153 &amp;D153&amp;M153</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.43.2020</v>
       </c>
       <c r="C153" s="41">
@@ -10959,7 +10959,7 @@
         <v>44</v>
       </c>
       <c r="B154" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C154 &amp;D154&amp;M154</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.44.2020</v>
       </c>
       <c r="C154" s="21">
@@ -11005,7 +11005,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C155 &amp;D155&amp;M155</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.45.2020</v>
       </c>
       <c r="C155" s="41">
@@ -11051,7 +11051,7 @@
         <v>46</v>
       </c>
       <c r="B156" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C156 &amp;D156&amp;M156</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.46.2020</v>
       </c>
       <c r="C156" s="21">
@@ -11095,7 +11095,7 @@
         <v>47</v>
       </c>
       <c r="B157" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C157 &amp;D157&amp;M157</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.47.2021</v>
       </c>
       <c r="C157" s="41">
@@ -11141,7 +11141,7 @@
         <v>48</v>
       </c>
       <c r="B158" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C158 &amp;D158&amp;M158</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.48.2021</v>
       </c>
       <c r="C158" s="21">
@@ -11187,7 +11187,7 @@
         <v>49</v>
       </c>
       <c r="B159" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C159 &amp;D159&amp;M159</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.49.2021</v>
       </c>
       <c r="C159" s="41">
@@ -11231,7 +11231,7 @@
         <v>50</v>
       </c>
       <c r="B160" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C160 &amp;D160&amp;M160</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.50.2019</v>
       </c>
       <c r="C160" s="21">
@@ -11275,7 +11275,7 @@
         <v>51</v>
       </c>
       <c r="B161" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C161 &amp;D161&amp;M161</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.51.2019</v>
       </c>
       <c r="C161" s="41">
@@ -11321,7 +11321,7 @@
         <v>52</v>
       </c>
       <c r="B162" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C162 &amp;D162&amp;M162</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.52.2021</v>
       </c>
       <c r="C162" s="21">
@@ -11365,7 +11365,7 @@
         <v>53</v>
       </c>
       <c r="B163" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C163 &amp;D163&amp;M163</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.53.2021</v>
       </c>
       <c r="C163" s="41">
@@ -11409,7 +11409,7 @@
         <v>54</v>
       </c>
       <c r="B164" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C164 &amp;D164&amp;M164</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.54.2021</v>
       </c>
       <c r="C164" s="21">
@@ -11453,7 +11453,7 @@
         <v>55</v>
       </c>
       <c r="B165" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C165 &amp;D165&amp;M165</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.55.2021</v>
       </c>
       <c r="C165" s="21">
@@ -11496,7 +11496,7 @@
         <v>56</v>
       </c>
       <c r="B166" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C166 &amp;D166&amp;M166</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.56.2021</v>
       </c>
       <c r="C166" s="21">
@@ -11539,7 +11539,7 @@
         <v>57</v>
       </c>
       <c r="B167" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C167 &amp;D167&amp;M167</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.57.2022</v>
       </c>
       <c r="C167" s="21">
@@ -11583,7 +11583,7 @@
         <v>58</v>
       </c>
       <c r="B168" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C168 &amp;D168&amp;M168</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.58.2018</v>
       </c>
       <c r="C168" s="21">
@@ -11627,7 +11627,7 @@
         <v>59</v>
       </c>
       <c r="B169" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C169 &amp;D169&amp;M169</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.59.2022</v>
       </c>
       <c r="C169" s="161">
@@ -11673,7 +11673,7 @@
         <v>60</v>
       </c>
       <c r="B170" s="118" t="str">
-        <f>"00.03.27.2.1.1.1.A." &amp;C170 &amp;D170&amp;M170</f>
+        <f t="shared" si="6"/>
         <v>00.03.27.2.1.1.1.A.60.2022</v>
       </c>
       <c r="C170" s="161">
@@ -12107,7 +12107,7 @@
         <v>70</v>
       </c>
       <c r="B180" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C180&amp;D180&amp;M180</f>
+        <f t="shared" ref="B180:B190" si="7">"00.03.27.2.1.1.1.A."&amp;C180&amp;D180&amp;M180</f>
         <v>00.03.27.2.1.1.1.A.70.2023</v>
       </c>
       <c r="C180" s="161">
@@ -12147,7 +12147,7 @@
         <v>71</v>
       </c>
       <c r="B181" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C181&amp;D181&amp;M181</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.71.2023</v>
       </c>
       <c r="C181" s="161">
@@ -12187,7 +12187,7 @@
         <v>72</v>
       </c>
       <c r="B182" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C182&amp;D182&amp;M182</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.72.2023</v>
       </c>
       <c r="C182" s="161">
@@ -12227,7 +12227,7 @@
         <v>73</v>
       </c>
       <c r="B183" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C183&amp;D183&amp;M183</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.73.2023</v>
       </c>
       <c r="C183" s="161">
@@ -12267,7 +12267,7 @@
         <v>74</v>
       </c>
       <c r="B184" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C184&amp;D184&amp;M184</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.74.2023</v>
       </c>
       <c r="C184" s="161">
@@ -12307,7 +12307,7 @@
         <v>75</v>
       </c>
       <c r="B185" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C185&amp;D185&amp;M185</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.75.2023</v>
       </c>
       <c r="C185" s="161">
@@ -12347,7 +12347,7 @@
         <v>76</v>
       </c>
       <c r="B186" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C186&amp;D186&amp;M186</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.76.2023</v>
       </c>
       <c r="C186" s="161">
@@ -12387,7 +12387,7 @@
         <v>77</v>
       </c>
       <c r="B187" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C187&amp;D187&amp;M187</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.77.2023</v>
       </c>
       <c r="C187" s="161">
@@ -12429,7 +12429,7 @@
         <v>78</v>
       </c>
       <c r="B188" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C188&amp;D188&amp;M188</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.78.2023</v>
       </c>
       <c r="C188" s="161">
@@ -12471,7 +12471,7 @@
         <v>78</v>
       </c>
       <c r="B189" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C189&amp;D189&amp;M189</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.79.2023</v>
       </c>
       <c r="C189" s="161">
@@ -12507,7 +12507,7 @@
     <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="37"/>
       <c r="B190" s="127" t="str">
-        <f>"00.03.27.2.1.1.1.A."&amp;C190&amp;D190&amp;M190</f>
+        <f t="shared" si="7"/>
         <v>00.03.27.2.1.1.1.A.80.2024</v>
       </c>
       <c r="C190" s="161">
@@ -12551,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="B191" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C191 &amp;D191 &amp; M191</f>
+        <f t="shared" ref="B191:B208" si="8">"00.03.27.1.4.4.3.A."&amp; C191 &amp;D191 &amp; M191</f>
         <v>00.03.27.1.4.4.3.A.1.2018</v>
       </c>
       <c r="C191" s="39">
@@ -12597,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C192 &amp;D192 &amp; M192</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.2.2014</v>
       </c>
       <c r="C192" s="29">
@@ -12643,7 +12643,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C193 &amp;D193 &amp; M193</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.3.2018</v>
       </c>
       <c r="C193" s="39">
@@ -12687,7 +12687,7 @@
         <v>4</v>
       </c>
       <c r="B194" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C194 &amp;D194 &amp; M194</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.4.2010</v>
       </c>
       <c r="C194" s="29">
@@ -12733,7 +12733,7 @@
         <v>5</v>
       </c>
       <c r="B195" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C195 &amp;D195 &amp; M195</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.5.2020</v>
       </c>
       <c r="C195" s="39">
@@ -12777,7 +12777,7 @@
         <v>6</v>
       </c>
       <c r="B196" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C196 &amp;D196 &amp; M196</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.6.2012</v>
       </c>
       <c r="C196" s="29">
@@ -12821,7 +12821,7 @@
         <v>7</v>
       </c>
       <c r="B197" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C197 &amp;D197 &amp; M197</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.7.2011</v>
       </c>
       <c r="C197" s="39">
@@ -12865,7 +12865,7 @@
         <v>8</v>
       </c>
       <c r="B198" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C198 &amp;D198 &amp; M198</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.8.2012</v>
       </c>
       <c r="C198" s="29">
@@ -12909,7 +12909,7 @@
         <v>9</v>
       </c>
       <c r="B199" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C199 &amp;D199 &amp; M199</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.9.2019</v>
       </c>
       <c r="C199" s="39">
@@ -12953,7 +12953,7 @@
         <v>10</v>
       </c>
       <c r="B200" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C200 &amp;D200 &amp; M200</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.10.2019</v>
       </c>
       <c r="C200" s="29">
@@ -12997,7 +12997,7 @@
         <v>11</v>
       </c>
       <c r="B201" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C201 &amp;D201 &amp; M201</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.11.2019</v>
       </c>
       <c r="C201" s="39">
@@ -13041,7 +13041,7 @@
         <v>12</v>
       </c>
       <c r="B202" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C202 &amp;D202 &amp; M202</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.12.2013</v>
       </c>
       <c r="C202" s="29">
@@ -13085,7 +13085,7 @@
         <v>13</v>
       </c>
       <c r="B203" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C203 &amp;D203 &amp; M203</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.13.2012</v>
       </c>
       <c r="C203" s="39">
@@ -13129,7 +13129,7 @@
         <v>14</v>
       </c>
       <c r="B204" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C204 &amp;D204 &amp; M204</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.14.2018</v>
       </c>
       <c r="C204" s="29">
@@ -13173,7 +13173,7 @@
         <v>15</v>
       </c>
       <c r="B205" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C205 &amp;D205 &amp; M205</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.15.2019</v>
       </c>
       <c r="C205" s="39">
@@ -13217,7 +13217,7 @@
         <v>16</v>
       </c>
       <c r="B206" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C206 &amp;D206 &amp; M206</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.16.2019</v>
       </c>
       <c r="C206" s="29">
@@ -13263,7 +13263,7 @@
         <v>17</v>
       </c>
       <c r="B207" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C207 &amp;D207 &amp; M207</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.17.2021</v>
       </c>
       <c r="C207" s="39">
@@ -13307,7 +13307,7 @@
         <v>18</v>
       </c>
       <c r="B208" s="116" t="str">
-        <f>"00.03.27.1.4.4.3.A."&amp; C208 &amp;D208 &amp; M208</f>
+        <f t="shared" si="8"/>
         <v>00.03.27.1.4.4.3.A.18.2022</v>
       </c>
       <c r="C208" s="39">
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C209&amp;D209&amp;M209</f>
+        <f t="shared" ref="B209:B232" si="9">"00.03.27.1.6.6.1.A."&amp;C209&amp;D209&amp;M209</f>
         <v>00.03.27.1.6.6.1.A.1.2018</v>
       </c>
       <c r="C209" s="39">
@@ -13399,7 +13399,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C210&amp;D210&amp;M210</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.2.2017</v>
       </c>
       <c r="C210" s="29">
@@ -13443,7 +13443,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C211&amp;D211&amp;M211</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.3.2018</v>
       </c>
       <c r="C211" s="39">
@@ -13487,7 +13487,7 @@
         <v>4</v>
       </c>
       <c r="B212" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C212&amp;D212&amp;M212</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.4.2021</v>
       </c>
       <c r="C212" s="29">
@@ -13531,7 +13531,7 @@
         <v>5</v>
       </c>
       <c r="B213" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C213&amp;D213&amp;M213</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.5.2021</v>
       </c>
       <c r="C213" s="39">
@@ -13575,7 +13575,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C214&amp;D214&amp;M214</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.6.2018</v>
       </c>
       <c r="C214" s="29">
@@ -13619,7 +13619,7 @@
         <v>7</v>
       </c>
       <c r="B215" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C215&amp;D215&amp;M215</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.7.2021</v>
       </c>
       <c r="C215" s="39">
@@ -13665,7 +13665,7 @@
         <v>8</v>
       </c>
       <c r="B216" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C216&amp;D216&amp;M216</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.8.2020</v>
       </c>
       <c r="C216" s="29">
@@ -13711,7 +13711,7 @@
         <v>9</v>
       </c>
       <c r="B217" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C217&amp;D217&amp;M217</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.9.2019</v>
       </c>
       <c r="C217" s="39">
@@ -13757,7 +13757,7 @@
         <v>10</v>
       </c>
       <c r="B218" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C218&amp;D218&amp;M218</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.10.2018</v>
       </c>
       <c r="C218" s="29">
@@ -13803,7 +13803,7 @@
         <v>11</v>
       </c>
       <c r="B219" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C219&amp;D219&amp;M219</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.11.2019</v>
       </c>
       <c r="C219" s="39">
@@ -13847,7 +13847,7 @@
         <v>12</v>
       </c>
       <c r="B220" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C220&amp;D220&amp;M220</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.12.2019</v>
       </c>
       <c r="C220" s="29">
@@ -13891,7 +13891,7 @@
         <v>13</v>
       </c>
       <c r="B221" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C221&amp;D221&amp;M221</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.13.2019</v>
       </c>
       <c r="C221" s="39">
@@ -13935,7 +13935,7 @@
         <v>14</v>
       </c>
       <c r="B222" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C222&amp;D222&amp;M222</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.14.2021</v>
       </c>
       <c r="C222" s="29">
@@ -13979,7 +13979,7 @@
         <v>15</v>
       </c>
       <c r="B223" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C223&amp;D223&amp;M223</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.15.2019</v>
       </c>
       <c r="C223" s="39">
@@ -14023,7 +14023,7 @@
         <v>16</v>
       </c>
       <c r="B224" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C224&amp;D224&amp;M224</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.16.2019</v>
       </c>
       <c r="C224" s="29">
@@ -14067,7 +14067,7 @@
         <v>17</v>
       </c>
       <c r="B225" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C225&amp;D225&amp;M225</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.17.2020</v>
       </c>
       <c r="C225" s="39">
@@ -14111,7 +14111,7 @@
         <v>18</v>
       </c>
       <c r="B226" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C226&amp;D226&amp;M226</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.18.2021</v>
       </c>
       <c r="C226" s="29">
@@ -14157,7 +14157,7 @@
         <v>19</v>
       </c>
       <c r="B227" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C227&amp;D227&amp;M227</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.19.2021</v>
       </c>
       <c r="C227" s="39">
@@ -14203,7 +14203,7 @@
         <v>20</v>
       </c>
       <c r="B228" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C228&amp;D228&amp;M228</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.20.2021</v>
       </c>
       <c r="C228" s="29">
@@ -14249,7 +14249,7 @@
         <v>21</v>
       </c>
       <c r="B229" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C229&amp;D229&amp;M229</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.21.2023</v>
       </c>
       <c r="C229" s="39">
@@ -14287,7 +14287,7 @@
         <v>22</v>
       </c>
       <c r="B230" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C230&amp;D230&amp;M230</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.22.2023</v>
       </c>
       <c r="C230" s="29">
@@ -14325,7 +14325,7 @@
         <v>23</v>
       </c>
       <c r="B231" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C231&amp;D231&amp;M231</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.23.2023</v>
       </c>
       <c r="C231" s="39">
@@ -14367,7 +14367,7 @@
     <row r="232" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="37"/>
       <c r="B232" s="120" t="str">
-        <f>"00.03.27.1.6.6.1.A."&amp;C232&amp;D232&amp;M232</f>
+        <f t="shared" si="9"/>
         <v>00.03.27.1.6.6.1.A.242024</v>
       </c>
       <c r="C232" s="29">
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C233&amp;D233&amp;M233</f>
+        <f t="shared" ref="B233:B244" si="10">"00.03.27.1.5.5.1.A."&amp;C233&amp;D233&amp;M233</f>
         <v>00.03.27.1.5.5.1.A.1.2016</v>
       </c>
       <c r="C233" s="39">
@@ -14449,7 +14449,7 @@
         <v>2</v>
       </c>
       <c r="B234" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C234&amp;D234&amp;M234</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.2.2016</v>
       </c>
       <c r="C234" s="29">
@@ -14493,7 +14493,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C235&amp;D235&amp;M235</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.3.2016</v>
       </c>
       <c r="C235" s="39">
@@ -14537,7 +14537,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C236&amp;D236&amp;M236</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.4.2016</v>
       </c>
       <c r="C236" s="29">
@@ -14581,7 +14581,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C237&amp;D237&amp;M237</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.5.2016</v>
       </c>
       <c r="C237" s="39">
@@ -14625,7 +14625,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="205" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C238&amp;D238&amp;M238</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.6.2016</v>
       </c>
       <c r="C238" s="206">
@@ -14671,7 +14671,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C239&amp;D239&amp;M239</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.7.2016</v>
       </c>
       <c r="C239" s="39">
@@ -14715,7 +14715,7 @@
         <v>8</v>
       </c>
       <c r="B240" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C240&amp;D240&amp;M240</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.8.2016</v>
       </c>
       <c r="C240" s="29">
@@ -14759,7 +14759,7 @@
         <v>9</v>
       </c>
       <c r="B241" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C241&amp;D241&amp;M241</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.9.2016</v>
       </c>
       <c r="C241" s="39">
@@ -14803,7 +14803,7 @@
         <v>10</v>
       </c>
       <c r="B242" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C242&amp;D242&amp;M242</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.10.2016</v>
       </c>
       <c r="C242" s="29">
@@ -14847,7 +14847,7 @@
         <v>11</v>
       </c>
       <c r="B243" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C243&amp;D243&amp;M243</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.11.2023</v>
       </c>
       <c r="C243" s="39">
@@ -14891,7 +14891,7 @@
         <v>11</v>
       </c>
       <c r="B244" s="120" t="str">
-        <f>"00.03.27.1.5.5.1.A."&amp;C244&amp;D244&amp;M244</f>
+        <f t="shared" si="10"/>
         <v>00.03.27.1.5.5.1.A.12.2023</v>
       </c>
       <c r="C244" s="39">
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C249&amp;D249&amp;M249</f>
+        <f t="shared" ref="B249:B283" si="11">"00.03.27.1.2.2.1.A."&amp;C249&amp;D249&amp;M249</f>
         <v>00.03.27.1.2.2.1.A.1.2017</v>
       </c>
       <c r="C249" s="39">
@@ -15157,7 +15157,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C250&amp;D250&amp;M250</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.2.2017</v>
       </c>
       <c r="C250" s="29">
@@ -15203,7 +15203,7 @@
         <v>3</v>
       </c>
       <c r="B251" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C251&amp;D251&amp;M251</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.3.2017</v>
       </c>
       <c r="C251" s="39">
@@ -15247,7 +15247,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C252&amp;D252&amp;M252</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.4.2017</v>
       </c>
       <c r="C252" s="29">
@@ -15291,7 +15291,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C253&amp;D253&amp;M253</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.5.2017</v>
       </c>
       <c r="C253" s="39">
@@ -15337,7 +15337,7 @@
         <v>6</v>
       </c>
       <c r="B254" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C254&amp;D254&amp;M254</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.6.2018</v>
       </c>
       <c r="C254" s="29">
@@ -15383,7 +15383,7 @@
         <v>7</v>
       </c>
       <c r="B255" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C255&amp;D255&amp;M255</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.7.2019</v>
       </c>
       <c r="C255" s="39">
@@ -15427,7 +15427,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C256&amp;D256&amp;M256</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.8.2019</v>
       </c>
       <c r="C256" s="29">
@@ -15473,7 +15473,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C257&amp;D257&amp;M257</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.9.2019</v>
       </c>
       <c r="C257" s="39">
@@ -15517,7 +15517,7 @@
         <v>10</v>
       </c>
       <c r="B258" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C258&amp;D258&amp;M258</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.10.2019</v>
       </c>
       <c r="C258" s="29">
@@ -15561,7 +15561,7 @@
         <v>11</v>
       </c>
       <c r="B259" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C259&amp;D259&amp;M259</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.11.2022</v>
       </c>
       <c r="C259" s="39">
@@ -15597,7 +15597,7 @@
         <v>12</v>
       </c>
       <c r="B260" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C260&amp;D260&amp;M260</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.12.2021</v>
       </c>
       <c r="C260" s="29">
@@ -64731,7 +64731,7 @@
         <v>13</v>
       </c>
       <c r="B261" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C261&amp;D261&amp;M261</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.13.2022</v>
       </c>
       <c r="C261" s="39">
@@ -64777,7 +64777,7 @@
         <v>14</v>
       </c>
       <c r="B262" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C262&amp;D262&amp;M262</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.14.2022</v>
       </c>
       <c r="C262" s="29">
@@ -64821,7 +64821,7 @@
         <v>15</v>
       </c>
       <c r="B263" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C263&amp;D263&amp;M263</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.15.2022</v>
       </c>
       <c r="C263" s="39">
@@ -64865,7 +64865,7 @@
         <v>16</v>
       </c>
       <c r="B264" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C264&amp;D264&amp;M264</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.16.2022</v>
       </c>
       <c r="C264" s="29">
@@ -64909,7 +64909,7 @@
         <v>17</v>
       </c>
       <c r="B265" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C265&amp;D265&amp;M265</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.172022</v>
       </c>
       <c r="C265" s="39">
@@ -64951,7 +64951,7 @@
         <v>18</v>
       </c>
       <c r="B266" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C266&amp;D266&amp;M266</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.182022</v>
       </c>
       <c r="C266" s="29">
@@ -64993,7 +64993,7 @@
         <v>19</v>
       </c>
       <c r="B267" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C267&amp;D267&amp;M267</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.19.2022</v>
       </c>
       <c r="C267" s="39">
@@ -65035,7 +65035,7 @@
         <v>20</v>
       </c>
       <c r="B268" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C268&amp;D268&amp;M268</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.20.2022</v>
       </c>
       <c r="C268" s="29">
@@ -65079,7 +65079,7 @@
         <v>21</v>
       </c>
       <c r="B269" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C269&amp;D269&amp;M269</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.21.2022</v>
       </c>
       <c r="C269" s="39">
@@ -65123,7 +65123,7 @@
         <v>22</v>
       </c>
       <c r="B270" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C270&amp;D270&amp;M270</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.22.2022</v>
       </c>
       <c r="C270" s="29">
@@ -65167,7 +65167,7 @@
         <v>23</v>
       </c>
       <c r="B271" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C271&amp;D271&amp;M271</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.23.2022</v>
       </c>
       <c r="C271" s="39">
@@ -65205,7 +65205,7 @@
         <v>24</v>
       </c>
       <c r="B272" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C272&amp;D272&amp;M272</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.24.2022</v>
       </c>
       <c r="C272" s="29">
@@ -65245,7 +65245,7 @@
         <v>25</v>
       </c>
       <c r="B273" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C273&amp;D273&amp;M273</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.25.2022</v>
       </c>
       <c r="C273" s="39">
@@ -65285,7 +65285,7 @@
         <v>26</v>
       </c>
       <c r="B274" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C274&amp;D274&amp;M274</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.26.2022</v>
       </c>
       <c r="C274" s="29">
@@ -65325,7 +65325,7 @@
         <v>27</v>
       </c>
       <c r="B275" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C275&amp;D275&amp;M275</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.27.2022</v>
       </c>
       <c r="C275" s="39">
@@ -65371,7 +65371,7 @@
         <v>28</v>
       </c>
       <c r="B276" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C276&amp;D276&amp;M276</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.28.2022</v>
       </c>
       <c r="C276" s="29">
@@ -65411,7 +65411,7 @@
         <v>29</v>
       </c>
       <c r="B277" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C277&amp;D277&amp;M277</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.29.2022</v>
       </c>
       <c r="C277" s="39">
@@ -65451,7 +65451,7 @@
         <v>30</v>
       </c>
       <c r="B278" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C278&amp;D278&amp;M278</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.30.2022</v>
       </c>
       <c r="C278" s="29">
@@ -65491,7 +65491,7 @@
         <v>31</v>
       </c>
       <c r="B279" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C279&amp;D279&amp;M279</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.31.2022</v>
       </c>
       <c r="C279" s="39">
@@ -65531,7 +65531,7 @@
         <v>32</v>
       </c>
       <c r="B280" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C280&amp;D280&amp;M280</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.32.2022</v>
       </c>
       <c r="C280" s="29">
@@ -65575,7 +65575,7 @@
         <v>33</v>
       </c>
       <c r="B281" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C281&amp;D281&amp;M281</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.33.2023</v>
       </c>
       <c r="C281" s="29">
@@ -65619,7 +65619,7 @@
         <v>25</v>
       </c>
       <c r="B282" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C282&amp;D282&amp;M282</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.34.2023</v>
       </c>
       <c r="C282" s="29">
@@ -65663,7 +65663,7 @@
         <v>20</v>
       </c>
       <c r="B283" s="121" t="str">
-        <f>"00.03.27.1.2.2.1.A."&amp;C283&amp;D283&amp;M283</f>
+        <f t="shared" si="11"/>
         <v>00.03.27.1.2.2.1.A.35.2023</v>
       </c>
       <c r="C283" s="29">
@@ -65707,7 +65707,7 @@
         <v>1</v>
       </c>
       <c r="B284" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C284&amp;D284&amp;M284</f>
+        <f t="shared" ref="B284:B293" si="12">"00.03.27.1.17.17.1.A."&amp;C284&amp;D284&amp;M284</f>
         <v>00.03.27.1.17.17.1.A.1.2020</v>
       </c>
       <c r="C284" s="17">
@@ -65753,7 +65753,7 @@
         <v>2</v>
       </c>
       <c r="B285" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C285&amp;D285&amp;M285</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.2.2020</v>
       </c>
       <c r="C285" s="17">
@@ -65799,7 +65799,7 @@
         <v>3</v>
       </c>
       <c r="B286" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C286&amp;D286&amp;M286</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.3.2019</v>
       </c>
       <c r="C286" s="17">
@@ -65843,7 +65843,7 @@
         <v>3</v>
       </c>
       <c r="B287" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C287&amp;D287&amp;M287</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.4.2019</v>
       </c>
       <c r="C287" s="17">
@@ -65887,7 +65887,7 @@
         <v>3</v>
       </c>
       <c r="B288" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C288&amp;D288&amp;M288</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.5.2019</v>
       </c>
       <c r="C288" s="17">
@@ -65931,7 +65931,7 @@
         <v>3</v>
       </c>
       <c r="B289" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C289&amp;D289&amp;M289</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.6.2019</v>
       </c>
       <c r="C289" s="17">
@@ -65975,7 +65975,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C290&amp;D290&amp;M290</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.7.2020</v>
       </c>
       <c r="C290" s="17">
@@ -66019,7 +66019,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C291&amp;D291&amp;M291</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.8.2020</v>
       </c>
       <c r="C291" s="17">
@@ -66063,7 +66063,7 @@
         <v>4</v>
       </c>
       <c r="B292" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C292&amp;D292&amp;M292</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.9.2020</v>
       </c>
       <c r="C292" s="17">
@@ -66107,7 +66107,7 @@
         <v>5</v>
       </c>
       <c r="B293" s="121" t="str">
-        <f>"00.03.27.1.17.17.1.A."&amp;C293&amp;D293&amp;M293</f>
+        <f t="shared" si="12"/>
         <v>00.03.27.1.17.17.1.A.10.2018</v>
       </c>
       <c r="C293" s="17">
@@ -66151,7 +66151,7 @@
         <v>1</v>
       </c>
       <c r="B294" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C294&amp;D294&amp;M294</f>
+        <f t="shared" ref="B294:B336" si="13">"00.03.27.2.2.2.1.A."&amp;C294&amp;D294&amp;M294</f>
         <v>00.03.27.2.2.2.1.A.1.2017</v>
       </c>
       <c r="C294" s="30">
@@ -66197,7 +66197,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C295&amp;D295&amp;M295</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.2.2017</v>
       </c>
       <c r="C295" s="17">
@@ -66243,7 +66243,7 @@
         <v>3</v>
       </c>
       <c r="B296" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C296&amp;D296&amp;M296</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.3.2018</v>
       </c>
       <c r="C296" s="30">
@@ -66289,7 +66289,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C297&amp;D297&amp;M297</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.4.2017</v>
       </c>
       <c r="C297" s="17">
@@ -66335,7 +66335,7 @@
         <v>5</v>
       </c>
       <c r="B298" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C298&amp;D298&amp;M298</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.5.2017</v>
       </c>
       <c r="C298" s="30">
@@ -66381,7 +66381,7 @@
         <v>6</v>
       </c>
       <c r="B299" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C299&amp;D299&amp;M299</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.6.2017</v>
       </c>
       <c r="C299" s="17">
@@ -66427,7 +66427,7 @@
         <v>7</v>
       </c>
       <c r="B300" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C300&amp;D300&amp;M300</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.7.2018</v>
       </c>
       <c r="C300" s="30">
@@ -66471,7 +66471,7 @@
         <v>8</v>
       </c>
       <c r="B301" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C301&amp;D301&amp;M301</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.8.2018</v>
       </c>
       <c r="C301" s="17">
@@ -66517,7 +66517,7 @@
         <v>9</v>
       </c>
       <c r="B302" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C302&amp;D302&amp;M302</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.9.2018</v>
       </c>
       <c r="C302" s="30">
@@ -66561,7 +66561,7 @@
         <v>10</v>
       </c>
       <c r="B303" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C303&amp;D303&amp;M303</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.10.2018</v>
       </c>
       <c r="C303" s="17">
@@ -66607,7 +66607,7 @@
         <v>11</v>
       </c>
       <c r="B304" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C304&amp;D304&amp;M304</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.11.2018</v>
       </c>
       <c r="C304" s="30">
@@ -66653,7 +66653,7 @@
         <v>12</v>
       </c>
       <c r="B305" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C305&amp;D305&amp;M305</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.12.2018</v>
       </c>
       <c r="C305" s="17">
@@ -66699,7 +66699,7 @@
         <v>13</v>
       </c>
       <c r="B306" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C306&amp;D306&amp;M306</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.13.2018</v>
       </c>
       <c r="C306" s="30">
@@ -66745,7 +66745,7 @@
         <v>14</v>
       </c>
       <c r="B307" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C307&amp;D307&amp;M307</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.14.2018</v>
       </c>
       <c r="C307" s="17">
@@ -66791,7 +66791,7 @@
         <v>15</v>
       </c>
       <c r="B308" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C308&amp;D308&amp;M308</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.15.2017</v>
       </c>
       <c r="C308" s="30">
@@ -66835,7 +66835,7 @@
         <v>16</v>
       </c>
       <c r="B309" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C309&amp;D309&amp;M309</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.16.2017</v>
       </c>
       <c r="C309" s="17">
@@ -66879,7 +66879,7 @@
         <v>17</v>
       </c>
       <c r="B310" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C310&amp;D310&amp;M310</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.17.2017</v>
       </c>
       <c r="C310" s="30">
@@ -66923,7 +66923,7 @@
         <v>18</v>
       </c>
       <c r="B311" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C311&amp;D311&amp;M311</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.18.2018</v>
       </c>
       <c r="C311" s="17">
@@ -66967,7 +66967,7 @@
         <v>19</v>
       </c>
       <c r="B312" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C312&amp;D312&amp;M312</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.19.2018</v>
       </c>
       <c r="C312" s="30">
@@ -67011,7 +67011,7 @@
         <v>20</v>
       </c>
       <c r="B313" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C313&amp;D313&amp;M313</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.20.2018</v>
       </c>
       <c r="C313" s="17">
@@ -67055,7 +67055,7 @@
         <v>21</v>
       </c>
       <c r="B314" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C314&amp;D314&amp;M314</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.21.2018</v>
       </c>
       <c r="C314" s="30">
@@ -67099,7 +67099,7 @@
         <v>22</v>
       </c>
       <c r="B315" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C315&amp;D315&amp;M315</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.22.2018</v>
       </c>
       <c r="C315" s="17">
@@ -67143,7 +67143,7 @@
         <v>23</v>
       </c>
       <c r="B316" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C316&amp;D316&amp;M316</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.23.2018</v>
       </c>
       <c r="C316" s="30">
@@ -67187,7 +67187,7 @@
         <v>24</v>
       </c>
       <c r="B317" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C317&amp;D317&amp;M317</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.24.2018</v>
       </c>
       <c r="C317" s="17">
@@ -67231,7 +67231,7 @@
         <v>25</v>
       </c>
       <c r="B318" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C318&amp;D318&amp;M318</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.25.2017</v>
       </c>
       <c r="C318" s="30">
@@ -67275,7 +67275,7 @@
         <v>26</v>
       </c>
       <c r="B319" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C319&amp;D319&amp;M319</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.26.2017</v>
       </c>
       <c r="C319" s="17">
@@ -67319,7 +67319,7 @@
         <v>27</v>
       </c>
       <c r="B320" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C320&amp;D320&amp;M320</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.27.2017</v>
       </c>
       <c r="C320" s="30">
@@ -67365,7 +67365,7 @@
         <v>28</v>
       </c>
       <c r="B321" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C321&amp;D321&amp;M321</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.28.2017</v>
       </c>
       <c r="C321" s="17">
@@ -67411,7 +67411,7 @@
         <v>29</v>
       </c>
       <c r="B322" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C322&amp;D322&amp;M322</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.29.2017</v>
       </c>
       <c r="C322" s="30">
@@ -67457,7 +67457,7 @@
         <v>30</v>
       </c>
       <c r="B323" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C323&amp;D323&amp;M323</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.30.2017</v>
       </c>
       <c r="C323" s="17">
@@ -67503,7 +67503,7 @@
         <v>31</v>
       </c>
       <c r="B324" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C324&amp;D324&amp;M324</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.31.2017</v>
       </c>
       <c r="C324" s="30">
@@ -67547,7 +67547,7 @@
         <v>32</v>
       </c>
       <c r="B325" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C325&amp;D325&amp;M325</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.32.2021</v>
       </c>
       <c r="C325" s="17">
@@ -67593,7 +67593,7 @@
         <v>33</v>
       </c>
       <c r="B326" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C326&amp;D326&amp;M326</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.33.2020</v>
       </c>
       <c r="C326" s="30">
@@ -67637,7 +67637,7 @@
         <v>34</v>
       </c>
       <c r="B327" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C327&amp;D327&amp;M327</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.34.2018</v>
       </c>
       <c r="C327" s="17">
@@ -67681,7 +67681,7 @@
         <v>35</v>
       </c>
       <c r="B328" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C328&amp;D328&amp;M328</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.35.2018</v>
       </c>
       <c r="C328" s="30">
@@ -67727,7 +67727,7 @@
         <v>36</v>
       </c>
       <c r="B329" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C329&amp;D329&amp;M329</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.36.2019</v>
       </c>
       <c r="C329" s="17">
@@ -67773,7 +67773,7 @@
         <v>37</v>
       </c>
       <c r="B330" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C330&amp;D330&amp;M330</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.37.2019</v>
       </c>
       <c r="C330" s="30">
@@ -67819,7 +67819,7 @@
         <v>38</v>
       </c>
       <c r="B331" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C331&amp;D331&amp;M331</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.38.2020</v>
       </c>
       <c r="C331" s="17">
@@ -67863,7 +67863,7 @@
         <v>39</v>
       </c>
       <c r="B332" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C332&amp;D332&amp;M332</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.39.2020</v>
       </c>
       <c r="C332" s="30">
@@ -67909,7 +67909,7 @@
         <v>40</v>
       </c>
       <c r="B333" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C333&amp;D333&amp;M333</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.40.2020</v>
       </c>
       <c r="C333" s="17">
@@ -67953,7 +67953,7 @@
         <v>41</v>
       </c>
       <c r="B334" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C334&amp;D334&amp;M334</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.41.2020</v>
       </c>
       <c r="C334" s="30">
@@ -67997,7 +67997,7 @@
         <v>42</v>
       </c>
       <c r="B335" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C335&amp;D335&amp;M335</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.42.2020</v>
       </c>
       <c r="C335" s="17">
@@ -68041,7 +68041,7 @@
         <v>43</v>
       </c>
       <c r="B336" s="122" t="str">
-        <f>"00.03.27.2.2.2.1.A."&amp;C336&amp;D336&amp;M336</f>
+        <f t="shared" si="13"/>
         <v>00.03.27.2.2.2.1.A.43.2022</v>
       </c>
       <c r="C336" s="30">
@@ -69105,7 +69105,7 @@
         <v>1</v>
       </c>
       <c r="B361" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C361&amp;D361&amp;M361</f>
+        <f t="shared" ref="B361:B396" si="14">"00.03.27.2.3.3.3.A."&amp;C361&amp;D361&amp;M361</f>
         <v>00.03.27.2.3.3.3.A.1.2016</v>
       </c>
       <c r="C361" s="30">
@@ -69151,7 +69151,7 @@
         <v>2</v>
       </c>
       <c r="B362" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C362&amp;D362&amp;M362</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.2.2017</v>
       </c>
       <c r="C362" s="17">
@@ -69197,7 +69197,7 @@
         <v>3</v>
       </c>
       <c r="B363" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C363&amp;D363&amp;M363</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.3.2017</v>
       </c>
       <c r="C363" s="30">
@@ -69243,7 +69243,7 @@
         <v>4</v>
       </c>
       <c r="B364" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C364&amp;D364&amp;M364</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.4.2017</v>
       </c>
       <c r="C364" s="17">
@@ -69289,7 +69289,7 @@
         <v>5</v>
       </c>
       <c r="B365" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C365&amp;D365&amp;M365</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.5.2019</v>
       </c>
       <c r="C365" s="30">
@@ -69335,7 +69335,7 @@
         <v>6</v>
       </c>
       <c r="B366" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C366&amp;D366&amp;M366</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.6.2016</v>
       </c>
       <c r="C366" s="17">
@@ -69381,7 +69381,7 @@
         <v>7</v>
       </c>
       <c r="B367" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C367&amp;D367&amp;M367</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.7.2017</v>
       </c>
       <c r="C367" s="30">
@@ -69430,7 +69430,7 @@
         <v>8</v>
       </c>
       <c r="B368" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C368&amp;D368&amp;M368</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.8.2021</v>
       </c>
       <c r="C368" s="17">
@@ -69476,7 +69476,7 @@
         <v>10</v>
       </c>
       <c r="B369" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C369&amp;D369&amp;M369</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.10.2019</v>
       </c>
       <c r="C369" s="17">
@@ -69522,7 +69522,7 @@
         <v>11</v>
       </c>
       <c r="B370" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C370&amp;D370&amp;M370</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.11.2019</v>
       </c>
       <c r="C370" s="30">
@@ -69568,7 +69568,7 @@
         <v>12</v>
       </c>
       <c r="B371" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C371&amp;D371&amp;M371</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.12.2018</v>
       </c>
       <c r="C371" s="17">
@@ -69612,7 +69612,7 @@
         <v>13</v>
       </c>
       <c r="B372" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C372&amp;D372&amp;M372</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.13.2018</v>
       </c>
       <c r="C372" s="30">
@@ -69656,7 +69656,7 @@
         <v>14</v>
       </c>
       <c r="B373" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C373&amp;D373&amp;M373</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.14.2018</v>
       </c>
       <c r="C373" s="17">
@@ -69702,7 +69702,7 @@
         <v>15</v>
       </c>
       <c r="B374" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C374&amp;D374&amp;M374</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.15.2018</v>
       </c>
       <c r="C374" s="30">
@@ -69748,7 +69748,7 @@
         <v>16</v>
       </c>
       <c r="B375" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C375&amp;D375&amp;M375</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.16.2018</v>
       </c>
       <c r="C375" s="17">
@@ -69794,7 +69794,7 @@
         <v>17</v>
       </c>
       <c r="B376" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C376&amp;D376&amp;M376</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.17.2018</v>
       </c>
       <c r="C376" s="30">
@@ -69838,7 +69838,7 @@
         <v>18</v>
       </c>
       <c r="B377" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C377&amp;D377&amp;M377</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.18.2018</v>
       </c>
       <c r="C377" s="17">
@@ -69884,7 +69884,7 @@
         <v>19</v>
       </c>
       <c r="B378" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C378&amp;D378&amp;M378</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.19.2018</v>
       </c>
       <c r="C378" s="30">
@@ -69928,7 +69928,7 @@
         <v>20</v>
       </c>
       <c r="B379" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C379&amp;D379&amp;M379</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.20.2019</v>
       </c>
       <c r="C379" s="17">
@@ -69974,7 +69974,7 @@
         <v>21</v>
       </c>
       <c r="B380" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C380&amp;D380&amp;M380</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.21.2018</v>
       </c>
       <c r="C380" s="30">
@@ -70018,7 +70018,7 @@
         <v>22</v>
       </c>
       <c r="B381" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C381&amp;D381&amp;M381</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.22.2018</v>
       </c>
       <c r="C381" s="17">
@@ -70062,7 +70062,7 @@
         <v>23</v>
       </c>
       <c r="B382" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C382&amp;D382&amp;M382</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.23.2018</v>
       </c>
       <c r="C382" s="30">
@@ -70106,7 +70106,7 @@
         <v>24</v>
       </c>
       <c r="B383" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C383&amp;D383&amp;M383</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.24.2018</v>
       </c>
       <c r="C383" s="17">
@@ -70150,7 +70150,7 @@
         <v>25</v>
       </c>
       <c r="B384" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C384&amp;D384&amp;M384</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.25.2018</v>
       </c>
       <c r="C384" s="30">
@@ -70194,7 +70194,7 @@
         <v>26</v>
       </c>
       <c r="B385" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C385&amp;D385&amp;M385</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.26.2018</v>
       </c>
       <c r="C385" s="17">
@@ -70238,7 +70238,7 @@
         <v>27</v>
       </c>
       <c r="B386" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C386&amp;D386&amp;M386</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.27.2018</v>
       </c>
       <c r="C386" s="30">
@@ -70282,7 +70282,7 @@
         <v>28</v>
       </c>
       <c r="B387" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C387&amp;D387&amp;M387</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.28.2018</v>
       </c>
       <c r="C387" s="17">
@@ -70326,7 +70326,7 @@
         <v>29</v>
       </c>
       <c r="B388" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C388&amp;D388&amp;M388</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.29.2018</v>
       </c>
       <c r="C388" s="30">
@@ -70372,7 +70372,7 @@
         <v>30</v>
       </c>
       <c r="B389" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C389&amp;D389&amp;M389</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.30.2018</v>
       </c>
       <c r="C389" s="17">
@@ -70418,7 +70418,7 @@
         <v>31</v>
       </c>
       <c r="B390" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C390&amp;D390&amp;M390</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.31.2019</v>
       </c>
       <c r="C390" s="30">
@@ -70464,7 +70464,7 @@
         <v>32</v>
       </c>
       <c r="B391" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C391&amp;D391&amp;M391</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.32.2019</v>
       </c>
       <c r="C391" s="17">
@@ -70508,7 +70508,7 @@
         <v>33</v>
       </c>
       <c r="B392" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C392&amp;D392&amp;M392</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.33.2020</v>
       </c>
       <c r="C392" s="30">
@@ -70552,7 +70552,7 @@
         <v>34</v>
       </c>
       <c r="B393" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C393&amp;D393&amp;M393</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.34.2020</v>
       </c>
       <c r="C393" s="17">
@@ -70598,7 +70598,7 @@
         <v>35</v>
       </c>
       <c r="B394" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C394&amp;D394&amp;M394</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.35.2020</v>
       </c>
       <c r="C394" s="30">
@@ -70644,7 +70644,7 @@
         <v>36</v>
       </c>
       <c r="B395" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C395&amp;D395&amp;M395</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.36.2022</v>
       </c>
       <c r="C395" s="30">
@@ -70688,7 +70688,7 @@
         <v>37</v>
       </c>
       <c r="B396" s="138" t="str">
-        <f>"00.03.27.2.3.3.3.A."&amp;C396&amp;D396&amp;M396</f>
+        <f t="shared" si="14"/>
         <v>00.03.27.2.3.3.3.A.37.2022</v>
       </c>
       <c r="C396" s="30">
@@ -70732,7 +70732,7 @@
         <v>38</v>
       </c>
       <c r="B397" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C397&amp;D397&amp;M397</f>
+        <f t="shared" ref="B397:B404" si="15">"00.03.27.2.3.3.1.A."&amp;C397&amp;D397&amp;M397</f>
         <v>00.03.27.2.3.3.1.A.38.2022</v>
       </c>
       <c r="C397" s="30">
@@ -70772,7 +70772,7 @@
         <v>39</v>
       </c>
       <c r="B398" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C398&amp;D398&amp;M398</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.39.2021</v>
       </c>
       <c r="C398" s="30">
@@ -70814,7 +70814,7 @@
         <v>40</v>
       </c>
       <c r="B399" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C399&amp;D399&amp;M399</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.40.2022</v>
       </c>
       <c r="C399" s="30">
@@ -70858,7 +70858,7 @@
         <v>41</v>
       </c>
       <c r="B400" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C400&amp;D400&amp;M400</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.41.2023</v>
       </c>
       <c r="C400" s="30">
@@ -70902,7 +70902,7 @@
         <v>42</v>
       </c>
       <c r="B401" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C401&amp;D401&amp;M401</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.42.2023</v>
       </c>
       <c r="C401" s="30">
@@ -70944,7 +70944,7 @@
     <row r="402" spans="1:15" s="78" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="34"/>
       <c r="B402" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C402&amp;D402&amp;M402</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.43.2023</v>
       </c>
       <c r="C402" s="30">
@@ -70984,7 +70984,7 @@
         <v>41</v>
       </c>
       <c r="B403" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C403&amp;D403&amp;M403</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.44.2023</v>
       </c>
       <c r="C403" s="30">
@@ -71028,7 +71028,7 @@
         <v>41</v>
       </c>
       <c r="B404" s="138" t="str">
-        <f>"00.03.27.2.3.3.1.A."&amp;C404&amp;D404&amp;M404</f>
+        <f t="shared" si="15"/>
         <v>00.03.27.2.3.3.1.A.45.2023</v>
       </c>
       <c r="C404" s="30">
@@ -71072,7 +71072,7 @@
         <v>1</v>
       </c>
       <c r="B405" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C405&amp;D405&amp;M405</f>
+        <f t="shared" ref="B405:B436" si="16">"00.03.27.3.1.1.1.A."&amp;C405&amp;D405&amp;M405</f>
         <v>00.03.27.3.1.1.1.A.1.2019</v>
       </c>
       <c r="C405" s="30">
@@ -71114,7 +71114,7 @@
         <v>2</v>
       </c>
       <c r="B406" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C406&amp;D406&amp;M406</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.2.2021</v>
       </c>
       <c r="C406" s="30">
@@ -71156,7 +71156,7 @@
         <v>3</v>
       </c>
       <c r="B407" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C407&amp;D407&amp;M407</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.3.2020</v>
       </c>
       <c r="C407" s="30">
@@ -71198,7 +71198,7 @@
         <v>4</v>
       </c>
       <c r="B408" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C408&amp;D408&amp;M408</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.4.2020</v>
       </c>
       <c r="C408" s="30">
@@ -71240,7 +71240,7 @@
         <v>5</v>
       </c>
       <c r="B409" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C409&amp;D409&amp;M409</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.5.2021</v>
       </c>
       <c r="C409" s="30">
@@ -71282,7 +71282,7 @@
         <v>6</v>
       </c>
       <c r="B410" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C410&amp;D410&amp;M410</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.6.2021</v>
       </c>
       <c r="C410" s="30">
@@ -71328,7 +71328,7 @@
         <v>7</v>
       </c>
       <c r="B411" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C411&amp;D411&amp;M411</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.7.2018</v>
       </c>
       <c r="C411" s="17">
@@ -71372,7 +71372,7 @@
         <v>8</v>
       </c>
       <c r="B412" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C412&amp;D412&amp;M412</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.8.2019</v>
       </c>
       <c r="C412" s="30">
@@ -71416,7 +71416,7 @@
         <v>9</v>
       </c>
       <c r="B413" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C413&amp;D413&amp;M413</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.9.2018</v>
       </c>
       <c r="C413" s="17">
@@ -71462,7 +71462,7 @@
         <v>10</v>
       </c>
       <c r="B414" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C414&amp;D414&amp;M414</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.10.2018</v>
       </c>
       <c r="C414" s="30">
@@ -71506,7 +71506,7 @@
         <v>11</v>
       </c>
       <c r="B415" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C415&amp;D415&amp;M415</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.11.2018</v>
       </c>
       <c r="C415" s="17">
@@ -71550,7 +71550,7 @@
         <v>12</v>
       </c>
       <c r="B416" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C416&amp;D416&amp;M416</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.12.2020</v>
       </c>
       <c r="C416" s="17">
@@ -71594,7 +71594,7 @@
         <v>13</v>
       </c>
       <c r="B417" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C417&amp;D417&amp;M417</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.13.2018</v>
       </c>
       <c r="C417" s="30">
@@ -71638,7 +71638,7 @@
         <v>14</v>
       </c>
       <c r="B418" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C418&amp;D418&amp;M418</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.14.2020</v>
       </c>
       <c r="C418" s="17">
@@ -71678,7 +71678,7 @@
         <v>15</v>
       </c>
       <c r="B419" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C419&amp;D419&amp;M419</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.15.2018</v>
       </c>
       <c r="C419" s="30">
@@ -71722,7 +71722,7 @@
         <v>16</v>
       </c>
       <c r="B420" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C420&amp;D420&amp;M420</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.16.2018</v>
       </c>
       <c r="C420" s="17">
@@ -71768,7 +71768,7 @@
         <v>17</v>
       </c>
       <c r="B421" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C421&amp;D421&amp;M421</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.17.2020</v>
       </c>
       <c r="C421" s="30">
@@ -71814,7 +71814,7 @@
         <v>18</v>
       </c>
       <c r="B422" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C422&amp;D422&amp;M422</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.18.2018</v>
       </c>
       <c r="C422" s="17">
@@ -71860,7 +71860,7 @@
         <v>19</v>
       </c>
       <c r="B423" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C423&amp;D423&amp;M423</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.19.2021</v>
       </c>
       <c r="C423" s="30">
@@ -71904,7 +71904,7 @@
         <v>20</v>
       </c>
       <c r="B424" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C424&amp;D424&amp;M424</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.20.2021</v>
       </c>
       <c r="C424" s="17">
@@ -71946,7 +71946,7 @@
         <v>21</v>
       </c>
       <c r="B425" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C425&amp;D425&amp;M425</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.21.2021</v>
       </c>
       <c r="C425" s="30">
@@ -71990,7 +71990,7 @@
         <v>22</v>
       </c>
       <c r="B426" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C426&amp;D426&amp;M426</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.22.2018</v>
       </c>
       <c r="C426" s="17">
@@ -72036,7 +72036,7 @@
         <v>25</v>
       </c>
       <c r="B427" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C427&amp;D427&amp;M427</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.25.2018</v>
       </c>
       <c r="C427" s="30">
@@ -72080,7 +72080,7 @@
         <v>27</v>
       </c>
       <c r="B428" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C428&amp;D428&amp;M428</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.27.2020</v>
       </c>
       <c r="C428" s="30">
@@ -72124,7 +72124,7 @@
         <v>28</v>
       </c>
       <c r="B429" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C429&amp;D429&amp;M429</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.28.2020</v>
       </c>
       <c r="C429" s="17">
@@ -72168,7 +72168,7 @@
         <v>32</v>
       </c>
       <c r="B430" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C430&amp;D430&amp;M430</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.32.2021</v>
       </c>
       <c r="C430" s="17">
@@ -72214,7 +72214,7 @@
         <v>33</v>
       </c>
       <c r="B431" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C431&amp;D431&amp;M431</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.33.2021</v>
       </c>
       <c r="C431" s="17">
@@ -72260,7 +72260,7 @@
         <v>34</v>
       </c>
       <c r="B432" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C432&amp;D432&amp;M432</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.34.2018</v>
       </c>
       <c r="C432" s="30">
@@ -72304,7 +72304,7 @@
         <v>35</v>
       </c>
       <c r="B433" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C433&amp;D433&amp;M433</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.35.2018</v>
       </c>
       <c r="C433" s="17">
@@ -72348,7 +72348,7 @@
         <v>36</v>
       </c>
       <c r="B434" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C434&amp;D434&amp;M434</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.36.2018</v>
       </c>
       <c r="C434" s="30">
@@ -72392,7 +72392,7 @@
         <v>37</v>
       </c>
       <c r="B435" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C435&amp;D435&amp;M435</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.37.2018</v>
       </c>
       <c r="C435" s="17">
@@ -72436,7 +72436,7 @@
         <v>38</v>
       </c>
       <c r="B436" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C436&amp;D436&amp;M436</f>
+        <f t="shared" si="16"/>
         <v>00.03.27.3.1.1.1.A.38.2018</v>
       </c>
       <c r="C436" s="30">
@@ -72480,7 +72480,7 @@
         <v>39</v>
       </c>
       <c r="B437" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C437&amp;D437&amp;M437</f>
+        <f t="shared" ref="B437:B468" si="17">"00.03.27.3.1.1.1.A."&amp;C437&amp;D437&amp;M437</f>
         <v>00.03.27.3.1.1.1.A.39.2018</v>
       </c>
       <c r="C437" s="17">
@@ -72524,7 +72524,7 @@
         <v>40</v>
       </c>
       <c r="B438" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C438&amp;D438&amp;M438</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.40.2018</v>
       </c>
       <c r="C438" s="30">
@@ -72568,7 +72568,7 @@
         <v>41</v>
       </c>
       <c r="B439" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C439&amp;D439&amp;M439</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.41.2018</v>
       </c>
       <c r="C439" s="17">
@@ -72612,7 +72612,7 @@
         <v>42</v>
       </c>
       <c r="B440" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C440&amp;D440&amp;M440</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.42.2018</v>
       </c>
       <c r="C440" s="30">
@@ -72656,7 +72656,7 @@
         <v>43</v>
       </c>
       <c r="B441" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C441&amp;D441&amp;M441</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.43.2018</v>
       </c>
       <c r="C441" s="17">
@@ -72700,7 +72700,7 @@
         <v>44</v>
       </c>
       <c r="B442" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C442&amp;D442&amp;M442</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.44.2018</v>
       </c>
       <c r="C442" s="17">
@@ -72744,7 +72744,7 @@
         <v>45</v>
       </c>
       <c r="B443" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C443&amp;D443&amp;M443</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.45.2018</v>
       </c>
       <c r="C443" s="17">
@@ -72788,7 +72788,7 @@
         <v>46</v>
       </c>
       <c r="B444" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C444&amp;D444&amp;M444</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.46.2018</v>
       </c>
       <c r="C444" s="30">
@@ -72832,7 +72832,7 @@
         <v>47</v>
       </c>
       <c r="B445" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C445&amp;D445&amp;M445</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.47.2018</v>
       </c>
       <c r="C445" s="17">
@@ -72876,7 +72876,7 @@
         <v>48</v>
       </c>
       <c r="B446" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C446&amp;D446&amp;M446</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.48.2018</v>
       </c>
       <c r="C446" s="30">
@@ -72920,7 +72920,7 @@
         <v>49</v>
       </c>
       <c r="B447" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C447&amp;D447&amp;M447</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.49.2018</v>
       </c>
       <c r="C447" s="17">
@@ -72964,7 +72964,7 @@
         <v>50</v>
       </c>
       <c r="B448" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C448&amp;D448&amp;M448</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.50.2018</v>
       </c>
       <c r="C448" s="30">
@@ -73008,7 +73008,7 @@
         <v>51</v>
       </c>
       <c r="B449" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C449&amp;D449&amp;M449</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.51.2018</v>
       </c>
       <c r="C449" s="17">
@@ -73052,7 +73052,7 @@
         <v>52</v>
       </c>
       <c r="B450" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C450&amp;D450&amp;M450</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.52.2018</v>
       </c>
       <c r="C450" s="30">
@@ -73096,7 +73096,7 @@
         <v>53</v>
       </c>
       <c r="B451" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C451&amp;D451&amp;M451</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.53.2018</v>
       </c>
       <c r="C451" s="17">
@@ -73140,7 +73140,7 @@
         <v>54</v>
       </c>
       <c r="B452" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C452&amp;D452&amp;M452</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.54.2018</v>
       </c>
       <c r="C452" s="17">
@@ -73184,7 +73184,7 @@
         <v>55</v>
       </c>
       <c r="B453" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C453&amp;D453&amp;M453</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.55.2018</v>
       </c>
       <c r="C453" s="30">
@@ -73228,7 +73228,7 @@
         <v>56</v>
       </c>
       <c r="B454" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C454&amp;D454&amp;M454</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.56.2018</v>
       </c>
       <c r="C454" s="17">
@@ -73272,7 +73272,7 @@
         <v>57</v>
       </c>
       <c r="B455" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C455&amp;D455&amp;M455</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.57.2018</v>
       </c>
       <c r="C455" s="30">
@@ -73316,7 +73316,7 @@
         <v>58</v>
       </c>
       <c r="B456" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C456&amp;D456&amp;M456</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.58.2018</v>
       </c>
       <c r="C456" s="17">
@@ -73360,7 +73360,7 @@
         <v>59</v>
       </c>
       <c r="B457" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C457&amp;D457&amp;M457</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.59.2018</v>
       </c>
       <c r="C457" s="30">
@@ -73404,7 +73404,7 @@
         <v>60</v>
       </c>
       <c r="B458" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C458&amp;D458&amp;M458</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.60.2018</v>
       </c>
       <c r="C458" s="17">
@@ -73448,7 +73448,7 @@
         <v>61</v>
       </c>
       <c r="B459" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C459&amp;D459&amp;M459</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.61.2018</v>
       </c>
       <c r="C459" s="30">
@@ -73492,7 +73492,7 @@
         <v>62</v>
       </c>
       <c r="B460" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C460&amp;D460&amp;M460</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.62.2018</v>
       </c>
       <c r="C460" s="17">
@@ -73536,7 +73536,7 @@
         <v>63</v>
       </c>
       <c r="B461" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C461&amp;D461&amp;M461</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.63.2018</v>
       </c>
       <c r="C461" s="17">
@@ -73580,7 +73580,7 @@
         <v>64</v>
       </c>
       <c r="B462" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C462&amp;D462&amp;M462</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.64.2018</v>
       </c>
       <c r="C462" s="30">
@@ -73624,7 +73624,7 @@
         <v>65</v>
       </c>
       <c r="B463" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C463&amp;D463&amp;M463</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.65.2018</v>
       </c>
       <c r="C463" s="17">
@@ -73668,7 +73668,7 @@
         <v>66</v>
       </c>
       <c r="B464" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C464&amp;D464&amp;M464</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.66.2020</v>
       </c>
       <c r="C464" s="21">
@@ -73710,7 +73710,7 @@
         <v>67</v>
       </c>
       <c r="B465" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C465&amp;D465&amp;M465</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.67.2022</v>
       </c>
       <c r="C465" s="17">
@@ -73752,7 +73752,7 @@
         <v>68</v>
       </c>
       <c r="B466" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C466&amp;D466&amp;M466</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.68.2022</v>
       </c>
       <c r="C466" s="17">
@@ -73794,7 +73794,7 @@
         <v>71</v>
       </c>
       <c r="B467" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C467&amp;D467&amp;M467</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.71.2022</v>
       </c>
       <c r="C467" s="17">
@@ -73840,7 +73840,7 @@
         <v>72</v>
       </c>
       <c r="B468" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C468&amp;D468&amp;M468</f>
+        <f t="shared" si="17"/>
         <v>00.03.27.3.1.1.1.A.72.2022</v>
       </c>
       <c r="C468" s="17">
@@ -73886,7 +73886,7 @@
         <v>73</v>
       </c>
       <c r="B469" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C469&amp;D469&amp;M469</f>
+        <f t="shared" ref="B469:B500" si="18">"00.03.27.3.1.1.1.A."&amp;C469&amp;D469&amp;M469</f>
         <v>00.03.27.3.1.1.1.A.73.2020</v>
       </c>
       <c r="C469" s="17">
@@ -73928,7 +73928,7 @@
         <v>74</v>
       </c>
       <c r="B470" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C470&amp;D470&amp;M470</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.74.2022</v>
       </c>
       <c r="C470" s="17">
@@ -73972,7 +73972,7 @@
         <v>75</v>
       </c>
       <c r="B471" s="123" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C471&amp;D471&amp;M471</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.75.2022</v>
       </c>
       <c r="C471" s="17">
@@ -74016,7 +74016,7 @@
         <v>76</v>
       </c>
       <c r="B472" s="192" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C472&amp;D472&amp;M472</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.76.2019</v>
       </c>
       <c r="C472" s="193">
@@ -74058,7 +74058,7 @@
         <v>77</v>
       </c>
       <c r="B473" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C473&amp;D473&amp;M473</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.77.2019</v>
       </c>
       <c r="C473" s="17">
@@ -74102,7 +74102,7 @@
         <v>78</v>
       </c>
       <c r="B474" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C474&amp;D474&amp;M474</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.78.2019</v>
       </c>
       <c r="C474" s="193">
@@ -74146,7 +74146,7 @@
         <v>79</v>
       </c>
       <c r="B475" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C475&amp;D475&amp;M475</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.79.2019</v>
       </c>
       <c r="C475" s="17">
@@ -74190,7 +74190,7 @@
         <v>80</v>
       </c>
       <c r="B476" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C476&amp;D476&amp;M476</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.80.2019</v>
       </c>
       <c r="C476" s="193">
@@ -74234,7 +74234,7 @@
         <v>81</v>
       </c>
       <c r="B477" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C477&amp;D477&amp;M477</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.81.2019</v>
       </c>
       <c r="C477" s="17">
@@ -74278,7 +74278,7 @@
         <v>82</v>
       </c>
       <c r="B478" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C478&amp;D478&amp;M478</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.82.2019</v>
       </c>
       <c r="C478" s="193">
@@ -74322,7 +74322,7 @@
         <v>83</v>
       </c>
       <c r="B479" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C479&amp;D479&amp;M479</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.83.2019</v>
       </c>
       <c r="C479" s="17">
@@ -74366,7 +74366,7 @@
         <v>84</v>
       </c>
       <c r="B480" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C480&amp;D480&amp;M480</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.84.2019</v>
       </c>
       <c r="C480" s="193">
@@ -74410,7 +74410,7 @@
         <v>85</v>
       </c>
       <c r="B481" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C481&amp;D481&amp;M481</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.85.2019</v>
       </c>
       <c r="C481" s="17">
@@ -74454,7 +74454,7 @@
         <v>86</v>
       </c>
       <c r="B482" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C482&amp;D482&amp;M482</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.86.2019</v>
       </c>
       <c r="C482" s="193">
@@ -74498,7 +74498,7 @@
         <v>87</v>
       </c>
       <c r="B483" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C483&amp;D483&amp;M483</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.87.2019</v>
       </c>
       <c r="C483" s="17">
@@ -74542,7 +74542,7 @@
         <v>88</v>
       </c>
       <c r="B484" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C484&amp;D484&amp;M484</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.88.2019</v>
       </c>
       <c r="C484" s="193">
@@ -74586,7 +74586,7 @@
         <v>89</v>
       </c>
       <c r="B485" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C485&amp;D485&amp;M485</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.89.2019</v>
       </c>
       <c r="C485" s="17">
@@ -74630,7 +74630,7 @@
         <v>90</v>
       </c>
       <c r="B486" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C486&amp;D486&amp;M486</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.90.2019</v>
       </c>
       <c r="C486" s="193">
@@ -74674,7 +74674,7 @@
         <v>91</v>
       </c>
       <c r="B487" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C487&amp;D487&amp;M487</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.91.2019</v>
       </c>
       <c r="C487" s="17">
@@ -74718,7 +74718,7 @@
         <v>92</v>
       </c>
       <c r="B488" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C488&amp;D488&amp;M488</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.92.2019</v>
       </c>
       <c r="C488" s="193">
@@ -74762,7 +74762,7 @@
         <v>93</v>
       </c>
       <c r="B489" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C489&amp;D489&amp;M489</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.93.2019</v>
       </c>
       <c r="C489" s="17">
@@ -74806,7 +74806,7 @@
         <v>94</v>
       </c>
       <c r="B490" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C490&amp;D490&amp;M490</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.94.2019</v>
       </c>
       <c r="C490" s="193">
@@ -74850,7 +74850,7 @@
         <v>95</v>
       </c>
       <c r="B491" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C491&amp;D491&amp;M491</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.95.2023</v>
       </c>
       <c r="C491" s="193">
@@ -74896,7 +74896,7 @@
         <v>76</v>
       </c>
       <c r="B492" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C492&amp;D492&amp;M492</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.96.2023</v>
       </c>
       <c r="C492" s="193">
@@ -74934,7 +74934,7 @@
         <v>57</v>
       </c>
       <c r="B493" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C493&amp;D493&amp;M493</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.97.2023</v>
       </c>
       <c r="C493" s="193">
@@ -74976,7 +74976,7 @@
         <v>38</v>
       </c>
       <c r="B494" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C494&amp;D494&amp;M494</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.98.2023</v>
       </c>
       <c r="C494" s="193">
@@ -75018,7 +75018,7 @@
         <v>19</v>
       </c>
       <c r="B495" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C495&amp;D495&amp;M495</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.99.2023</v>
       </c>
       <c r="C495" s="193">
@@ -75062,7 +75062,7 @@
         <v>0</v>
       </c>
       <c r="B496" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C496&amp;D496&amp;M496</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.100.2023</v>
       </c>
       <c r="C496" s="193">
@@ -75106,7 +75106,7 @@
         <v>-19</v>
       </c>
       <c r="B497" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C497&amp;D497&amp;M497</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.101.2023</v>
       </c>
       <c r="C497" s="193">
@@ -75148,7 +75148,7 @@
         <v>-38</v>
       </c>
       <c r="B498" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C498&amp;D498&amp;M498</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.102.2023</v>
       </c>
       <c r="C498" s="193">
@@ -75192,7 +75192,7 @@
         <v>-57</v>
       </c>
       <c r="B499" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C499&amp;D499&amp;M499</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.103.2023</v>
       </c>
       <c r="C499" s="193">
@@ -75236,7 +75236,7 @@
         <v>-76</v>
       </c>
       <c r="B500" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C500&amp;D500&amp;M500</f>
+        <f t="shared" si="18"/>
         <v>00.03.27.3.1.1.1.A.104.2023</v>
       </c>
       <c r="C500" s="193">
@@ -75280,7 +75280,7 @@
         <v>-95</v>
       </c>
       <c r="B501" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C501&amp;D501&amp;M501</f>
+        <f t="shared" ref="B501:B532" si="19">"00.03.27.3.1.1.1.A."&amp;C501&amp;D501&amp;M501</f>
         <v>00.03.27.3.1.1.1.A.105.2023</v>
       </c>
       <c r="C501" s="193">
@@ -75322,7 +75322,7 @@
         <v>-114</v>
       </c>
       <c r="B502" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C502&amp;D502&amp;M502</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.106.2023</v>
       </c>
       <c r="C502" s="193">
@@ -75364,7 +75364,7 @@
         <v>-133</v>
       </c>
       <c r="B503" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C503&amp;D503&amp;M503</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.107.2023</v>
       </c>
       <c r="C503" s="193">
@@ -75406,7 +75406,7 @@
         <v>-152</v>
       </c>
       <c r="B504" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C504&amp;D504&amp;M504</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.108.2023</v>
       </c>
       <c r="C504" s="193">
@@ -75448,7 +75448,7 @@
         <v>-171</v>
       </c>
       <c r="B505" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C505&amp;D505&amp;M505</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.109.2023</v>
       </c>
       <c r="C505" s="193">
@@ -75490,7 +75490,7 @@
         <v>-190</v>
       </c>
       <c r="B506" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C506&amp;D506&amp;M506</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.110.2023</v>
       </c>
       <c r="C506" s="193">
@@ -75532,7 +75532,7 @@
         <v>-209</v>
       </c>
       <c r="B507" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C507&amp;D507&amp;M507</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.111.2023</v>
       </c>
       <c r="C507" s="193">
@@ -75574,7 +75574,7 @@
         <v>-228</v>
       </c>
       <c r="B508" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C508&amp;D508&amp;M508</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.112.2023</v>
       </c>
       <c r="C508" s="193">
@@ -75616,7 +75616,7 @@
         <v>-247</v>
       </c>
       <c r="B509" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C509&amp;D509&amp;M509</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.113.2023</v>
       </c>
       <c r="C509" s="193">
@@ -75658,7 +75658,7 @@
         <v>-266</v>
       </c>
       <c r="B510" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C510&amp;D510&amp;M510</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.114.2023</v>
       </c>
       <c r="C510" s="193">
@@ -75700,7 +75700,7 @@
         <v>-285</v>
       </c>
       <c r="B511" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C511&amp;D511&amp;M511</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.115.2023</v>
       </c>
       <c r="C511" s="193">
@@ -75742,7 +75742,7 @@
         <v>-304</v>
       </c>
       <c r="B512" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C512&amp;D512&amp;M512</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.116.2023</v>
       </c>
       <c r="C512" s="193">
@@ -75784,7 +75784,7 @@
         <v>-323</v>
       </c>
       <c r="B513" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C513&amp;D513&amp;M513</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.117.2023</v>
       </c>
       <c r="C513" s="193">
@@ -75826,7 +75826,7 @@
         <v>-342</v>
       </c>
       <c r="B514" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C514&amp;D514&amp;M514</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.118.2023</v>
       </c>
       <c r="C514" s="193">
@@ -75868,7 +75868,7 @@
         <v>-361</v>
       </c>
       <c r="B515" s="199" t="str">
-        <f>"00.03.27.3.1.1.1.A."&amp;C515&amp;D515&amp;M515</f>
+        <f t="shared" si="19"/>
         <v>00.03.27.3.1.1.1.A.119.2023</v>
       </c>
       <c r="C515" s="193">
@@ -75908,7 +75908,7 @@
         <v>1</v>
       </c>
       <c r="B516" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C516&amp;D516&amp;M516</f>
+        <f t="shared" ref="B516:B541" si="20">"00.02.27.4.1.1.1.A."&amp;C516&amp;D516&amp;M516</f>
         <v>00.02.27.4.1.1.1.A.1.2016</v>
       </c>
       <c r="C516" s="17">
@@ -75952,7 +75952,7 @@
         <v>2</v>
       </c>
       <c r="B517" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C517&amp;D517&amp;M517</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.2.2020</v>
       </c>
       <c r="C517" s="17">
@@ -75996,7 +75996,7 @@
         <v>3</v>
       </c>
       <c r="B518" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C518&amp;D518&amp;M518</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.3.2021</v>
       </c>
       <c r="C518" s="17">
@@ -76042,7 +76042,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C519&amp;D519&amp;M519</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.4.2017</v>
       </c>
       <c r="C519" s="17">
@@ -76088,7 +76088,7 @@
         <v>5</v>
       </c>
       <c r="B520" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C520&amp;D520&amp;M520</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.5.2018</v>
       </c>
       <c r="C520" s="17">
@@ -76134,7 +76134,7 @@
         <v>6</v>
       </c>
       <c r="B521" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C521&amp;D521&amp;M521</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.6.2017</v>
       </c>
       <c r="C521" s="17">
@@ -76178,7 +76178,7 @@
         <v>7</v>
       </c>
       <c r="B522" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C522&amp;D522&amp;M522</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.7.2017</v>
       </c>
       <c r="C522" s="17">
@@ -76222,7 +76222,7 @@
         <v>8</v>
       </c>
       <c r="B523" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C523&amp;D523&amp;M523</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.8.2017</v>
       </c>
       <c r="C523" s="17">
@@ -76266,7 +76266,7 @@
         <v>10</v>
       </c>
       <c r="B524" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C524&amp;D524&amp;M524</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.10.2017</v>
       </c>
       <c r="C524" s="17">
@@ -76310,7 +76310,7 @@
         <v>11</v>
       </c>
       <c r="B525" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C525&amp;D525&amp;M525</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.11.2019</v>
       </c>
       <c r="C525" s="17">
@@ -76356,7 +76356,7 @@
         <v>12</v>
       </c>
       <c r="B526" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C526&amp;D526&amp;M526</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.12.2017</v>
       </c>
       <c r="C526" s="17">
@@ -76400,7 +76400,7 @@
         <v>13</v>
       </c>
       <c r="B527" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C527&amp;D527&amp;M527</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.13.2017</v>
       </c>
       <c r="C527" s="17">
@@ -76444,7 +76444,7 @@
         <v>14</v>
       </c>
       <c r="B528" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C528&amp;D528&amp;M528</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.14.2017</v>
       </c>
       <c r="C528" s="17">
@@ -76488,7 +76488,7 @@
         <v>15</v>
       </c>
       <c r="B529" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C529&amp;D529&amp;M529</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.15.2020</v>
       </c>
       <c r="C529" s="17">
@@ -76534,7 +76534,7 @@
         <v>16</v>
       </c>
       <c r="B530" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C530&amp;D530&amp;M530</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.16.2019</v>
       </c>
       <c r="C530" s="17">
@@ -76580,7 +76580,7 @@
         <v>17</v>
       </c>
       <c r="B531" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C531&amp;D531&amp;M531</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.17.2019</v>
       </c>
       <c r="C531" s="17">
@@ -76624,7 +76624,7 @@
         <v>18</v>
       </c>
       <c r="B532" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C532&amp;D532&amp;M532</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.18.2021</v>
       </c>
       <c r="C532" s="17">
@@ -76668,7 +76668,7 @@
         <v>19</v>
       </c>
       <c r="B533" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C533&amp;D533&amp;M533</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.19.2021</v>
       </c>
       <c r="C533" s="17">
@@ -76714,7 +76714,7 @@
         <v>20</v>
       </c>
       <c r="B534" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C534&amp;D534&amp;M534</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.20.2021</v>
       </c>
       <c r="C534" s="17">
@@ -76758,7 +76758,7 @@
         <v>21</v>
       </c>
       <c r="B535" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C535&amp;D535&amp;M535</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.21.2020</v>
       </c>
       <c r="C535" s="17">
@@ -76802,7 +76802,7 @@
         <v>22</v>
       </c>
       <c r="B536" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C536&amp;D536&amp;M536</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.22.2019</v>
       </c>
       <c r="C536" s="17">
@@ -76848,7 +76848,7 @@
         <v>23</v>
       </c>
       <c r="B537" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C537&amp;D537&amp;M537</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.23.2021</v>
       </c>
       <c r="C537" s="17">
@@ -76894,7 +76894,7 @@
         <v>24</v>
       </c>
       <c r="B538" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C538&amp;D538&amp;M538</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.24.2019</v>
       </c>
       <c r="C538" s="17">
@@ -76940,7 +76940,7 @@
         <v>25</v>
       </c>
       <c r="B539" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C539&amp;D539&amp;M539</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.25.2019</v>
       </c>
       <c r="C539" s="17">
@@ -76986,7 +76986,7 @@
         <v>26</v>
       </c>
       <c r="B540" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C540&amp;D540&amp;M540</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.26.2021</v>
       </c>
       <c r="C540" s="17">
@@ -77030,7 +77030,7 @@
         <v>27</v>
       </c>
       <c r="B541" s="35" t="str">
-        <f>"00.02.27.4.1.1.1.A."&amp;C541&amp;D541&amp;M541</f>
+        <f t="shared" si="20"/>
         <v>00.02.27.4.1.1.1.A.27.2021</v>
       </c>
       <c r="C541" s="17">
@@ -77076,7 +77076,7 @@
         <v>46</v>
       </c>
       <c r="B542" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C542&amp;D542&amp;M542</f>
+        <f t="shared" ref="B542:B558" si="21">"00.03.27.4.1.1.1.A."&amp;C542&amp;D542&amp;M542</f>
         <v>00.03.27.4.1.1.1.A.46.2022</v>
       </c>
       <c r="C542" s="21">
@@ -77118,7 +77118,7 @@
         <v>47</v>
       </c>
       <c r="B543" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C543&amp;D543&amp;M543</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.47.2022</v>
       </c>
       <c r="C543" s="21">
@@ -77160,7 +77160,7 @@
         <v>48</v>
       </c>
       <c r="B544" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C544&amp;D544&amp;M544</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.48.2022</v>
       </c>
       <c r="C544" s="17">
@@ -77202,7 +77202,7 @@
         <v>49</v>
       </c>
       <c r="B545" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C545&amp;D545&amp;M545</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.49.2022</v>
       </c>
       <c r="C545" s="21">
@@ -77248,7 +77248,7 @@
         <v>50</v>
       </c>
       <c r="B546" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C546&amp;D546&amp;M546</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.50.2022</v>
       </c>
       <c r="C546" s="17">
@@ -77294,7 +77294,7 @@
         <v>51</v>
       </c>
       <c r="B547" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C547&amp;D547&amp;M547</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.51.2022</v>
       </c>
       <c r="C547" s="21">
@@ -77334,7 +77334,7 @@
         <v>52</v>
       </c>
       <c r="B548" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C548&amp;D548&amp;M548</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.52.2022</v>
       </c>
       <c r="C548" s="17">
@@ -77374,7 +77374,7 @@
         <v>53</v>
       </c>
       <c r="B549" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C549&amp;D549&amp;M549</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.53.2022</v>
       </c>
       <c r="C549" s="17">
@@ -77414,7 +77414,7 @@
         <v>54</v>
       </c>
       <c r="B550" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C550&amp;D550&amp;M550</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.54.2020</v>
       </c>
       <c r="C550" s="17">
@@ -77454,7 +77454,7 @@
         <v>55</v>
       </c>
       <c r="B551" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C551&amp;D551&amp;M551</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.55.2022</v>
       </c>
       <c r="C551" s="17">
@@ -77498,7 +77498,7 @@
         <v>56</v>
       </c>
       <c r="B552" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C552&amp;D552&amp;M552</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.56.2022</v>
       </c>
       <c r="C552" s="17">
@@ -77542,7 +77542,7 @@
         <v>57</v>
       </c>
       <c r="B553" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C553&amp;D553&amp;M553</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.57.2022</v>
       </c>
       <c r="C553" s="17">
@@ -77586,7 +77586,7 @@
         <v>58</v>
       </c>
       <c r="B554" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C554&amp;D554&amp;M554</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.58.2022</v>
       </c>
       <c r="C554" s="17">
@@ -77630,7 +77630,7 @@
         <v>59</v>
       </c>
       <c r="B555" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C555&amp;D555&amp;M555</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.59.2022</v>
       </c>
       <c r="C555" s="17">
@@ -77674,7 +77674,7 @@
         <v>60</v>
       </c>
       <c r="B556" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C556&amp;D556&amp;M556</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.60.2023</v>
       </c>
       <c r="C556" s="17">
@@ -77718,7 +77718,7 @@
         <v>61</v>
       </c>
       <c r="B557" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C557&amp;D557&amp;M557</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.61.2023</v>
       </c>
       <c r="C557" s="17">
@@ -77762,7 +77762,7 @@
         <v>62</v>
       </c>
       <c r="B558" s="35" t="str">
-        <f>"00.03.27.4.1.1.1.A."&amp;C558&amp;D558&amp;M558</f>
+        <f t="shared" si="21"/>
         <v>00.03.27.4.1.1.1.A.622024</v>
       </c>
       <c r="C558" s="17">
@@ -78402,11 +78402,6 @@
     <sortCondition ref="J66:J117"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
@@ -78415,6 +78410,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.3" bottom="0.17" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="150" scale="83" orientation="landscape" r:id="rId1"/>
@@ -78448,48 +78448,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="229" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="225"/>
-      <c r="B5" s="225"/>
+      <c r="A5" s="228"/>
+      <c r="B5" s="228"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -78500,10 +78500,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="227" t="s">
         <v>418</v>
       </c>
-      <c r="B6" s="224"/>
+      <c r="B6" s="227"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
@@ -78514,31 +78514,31 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216" t="s">
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G7" s="218" t="s">
+      <c r="G7" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H7" s="218" t="s">
+      <c r="H7" s="217" t="s">
         <v>156</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="214"/>
-      <c r="B8" s="214"/>
+      <c r="A8" s="222"/>
+      <c r="B8" s="222"/>
       <c r="C8" s="6" t="s">
         <v>217</v>
       </c>
@@ -78548,9 +78548,9 @@
       <c r="E8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="217"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -79365,10 +79365,10 @@
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="227" t="s">
+      <c r="A42" s="224" t="s">
         <v>419</v>
       </c>
-      <c r="B42" s="227"/>
+      <c r="B42" s="224"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -79377,30 +79377,30 @@
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="213" t="s">
+      <c r="A43" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="215"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="216" t="s">
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="218" t="s">
+      <c r="G43" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H43" s="218" t="s">
+      <c r="H43" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="228"/>
-      <c r="B44" s="214"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="222"/>
       <c r="C44" s="6" t="s">
         <v>217</v>
       </c>
@@ -79410,9 +79410,9 @@
       <c r="E44" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="217"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="218"/>
+      <c r="H44" s="218"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="67">
@@ -80233,10 +80233,10 @@
       <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="227" t="s">
+      <c r="A78" s="224" t="s">
         <v>420</v>
       </c>
-      <c r="B78" s="227"/>
+      <c r="B78" s="224"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -80245,30 +80245,30 @@
       <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="213" t="s">
+      <c r="A79" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="213" t="s">
+      <c r="B79" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C79" s="215" t="s">
+      <c r="C79" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="215"/>
-      <c r="E79" s="215"/>
-      <c r="F79" s="216" t="s">
+      <c r="D79" s="223"/>
+      <c r="E79" s="223"/>
+      <c r="F79" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G79" s="218" t="s">
+      <c r="G79" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H79" s="218" t="s">
+      <c r="H79" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="214"/>
-      <c r="B80" s="214"/>
+      <c r="A80" s="222"/>
+      <c r="B80" s="222"/>
       <c r="C80" s="6" t="s">
         <v>217</v>
       </c>
@@ -80278,9 +80278,9 @@
       <c r="E80" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F80" s="217"/>
-      <c r="G80" s="219"/>
-      <c r="H80" s="219"/>
+      <c r="F80" s="212"/>
+      <c r="G80" s="218"/>
+      <c r="H80" s="218"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37">
@@ -81681,30 +81681,30 @@
       <c r="H136" s="24"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="213" t="s">
+      <c r="A137" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B137" s="213" t="s">
+      <c r="B137" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C137" s="215" t="s">
+      <c r="C137" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="215"/>
-      <c r="E137" s="215"/>
-      <c r="F137" s="216" t="s">
+      <c r="D137" s="223"/>
+      <c r="E137" s="223"/>
+      <c r="F137" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G137" s="218" t="s">
+      <c r="G137" s="217" t="s">
         <v>394</v>
       </c>
-      <c r="H137" s="218" t="s">
+      <c r="H137" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="214"/>
-      <c r="B138" s="214"/>
+      <c r="A138" s="222"/>
+      <c r="B138" s="222"/>
       <c r="C138" s="6" t="s">
         <v>217</v>
       </c>
@@ -81714,9 +81714,9 @@
       <c r="E138" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F138" s="217"/>
-      <c r="G138" s="219"/>
-      <c r="H138" s="219"/>
+      <c r="F138" s="212"/>
+      <c r="G138" s="218"/>
+      <c r="H138" s="218"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A139" s="37">
@@ -82181,30 +82181,30 @@
       <c r="H158" s="24"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="213" t="s">
+      <c r="A159" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B159" s="213" t="s">
+      <c r="B159" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C159" s="215" t="s">
+      <c r="C159" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D159" s="215"/>
-      <c r="E159" s="215"/>
-      <c r="F159" s="216" t="s">
+      <c r="D159" s="223"/>
+      <c r="E159" s="223"/>
+      <c r="F159" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G159" s="218" t="s">
+      <c r="G159" s="217" t="s">
         <v>394</v>
       </c>
-      <c r="H159" s="218" t="s">
+      <c r="H159" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="214"/>
-      <c r="B160" s="214"/>
+      <c r="A160" s="222"/>
+      <c r="B160" s="222"/>
       <c r="C160" s="6" t="s">
         <v>217</v>
       </c>
@@ -82214,9 +82214,9 @@
       <c r="E160" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F160" s="217"/>
-      <c r="G160" s="219"/>
-      <c r="H160" s="219"/>
+      <c r="F160" s="212"/>
+      <c r="G160" s="218"/>
+      <c r="H160" s="218"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37">
@@ -82759,30 +82759,30 @@
       <c r="H183" s="24"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="213" t="s">
+      <c r="A184" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B184" s="213" t="s">
+      <c r="B184" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C184" s="215" t="s">
+      <c r="C184" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D184" s="215"/>
-      <c r="E184" s="215"/>
-      <c r="F184" s="216" t="s">
+      <c r="D184" s="223"/>
+      <c r="E184" s="223"/>
+      <c r="F184" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G184" s="218" t="s">
+      <c r="G184" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H184" s="218" t="s">
+      <c r="H184" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="214"/>
-      <c r="B185" s="214"/>
+      <c r="A185" s="222"/>
+      <c r="B185" s="222"/>
       <c r="C185" s="6" t="s">
         <v>217</v>
       </c>
@@ -82792,9 +82792,9 @@
       <c r="E185" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F185" s="217"/>
-      <c r="G185" s="219"/>
-      <c r="H185" s="219"/>
+      <c r="F185" s="212"/>
+      <c r="G185" s="218"/>
+      <c r="H185" s="218"/>
     </row>
     <row r="186" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A186" s="37">
@@ -83077,30 +83077,30 @@
       <c r="H198" s="24"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="213" t="s">
+      <c r="A199" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B199" s="213" t="s">
+      <c r="B199" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C199" s="215" t="s">
+      <c r="C199" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D199" s="215"/>
-      <c r="E199" s="215"/>
-      <c r="F199" s="216" t="s">
+      <c r="D199" s="223"/>
+      <c r="E199" s="223"/>
+      <c r="F199" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G199" s="218" t="s">
+      <c r="G199" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H199" s="218" t="s">
+      <c r="H199" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="214"/>
-      <c r="B200" s="214"/>
+      <c r="A200" s="222"/>
+      <c r="B200" s="222"/>
       <c r="C200" s="6" t="s">
         <v>217</v>
       </c>
@@ -83110,9 +83110,9 @@
       <c r="E200" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F200" s="217"/>
-      <c r="G200" s="219"/>
-      <c r="H200" s="219"/>
+      <c r="F200" s="212"/>
+      <c r="G200" s="218"/>
+      <c r="H200" s="218"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="37">
@@ -83235,10 +83235,10 @@
       <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="229" t="s">
+      <c r="A207" s="225" t="s">
         <v>426</v>
       </c>
-      <c r="B207" s="229"/>
+      <c r="B207" s="225"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="4"/>
@@ -83247,30 +83247,30 @@
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="213" t="s">
+      <c r="A208" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B208" s="213" t="s">
+      <c r="B208" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C208" s="215" t="s">
+      <c r="C208" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D208" s="215"/>
-      <c r="E208" s="215"/>
-      <c r="F208" s="216" t="s">
+      <c r="D208" s="223"/>
+      <c r="E208" s="223"/>
+      <c r="F208" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G208" s="218" t="s">
+      <c r="G208" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H208" s="218" t="s">
+      <c r="H208" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="214"/>
-      <c r="B209" s="214"/>
+      <c r="A209" s="222"/>
+      <c r="B209" s="222"/>
       <c r="C209" s="6" t="s">
         <v>217</v>
       </c>
@@ -83280,9 +83280,9 @@
       <c r="E209" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F209" s="217"/>
-      <c r="G209" s="219"/>
-      <c r="H209" s="219"/>
+      <c r="F209" s="212"/>
+      <c r="G209" s="218"/>
+      <c r="H209" s="218"/>
     </row>
     <row r="210" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
@@ -83568,10 +83568,10 @@
       <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="227" t="s">
+      <c r="A223" s="224" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="227"/>
+      <c r="B223" s="224"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="4"/>
@@ -83580,30 +83580,30 @@
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="213" t="s">
+      <c r="A224" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B224" s="213" t="s">
+      <c r="B224" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C224" s="215" t="s">
+      <c r="C224" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D224" s="215"/>
-      <c r="E224" s="215"/>
-      <c r="F224" s="216" t="s">
+      <c r="D224" s="223"/>
+      <c r="E224" s="223"/>
+      <c r="F224" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="G224" s="218" t="s">
+      <c r="G224" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H224" s="218" t="s">
+      <c r="H224" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="214"/>
-      <c r="B225" s="214"/>
+      <c r="A225" s="222"/>
+      <c r="B225" s="222"/>
       <c r="C225" s="6" t="s">
         <v>217</v>
       </c>
@@ -83613,9 +83613,9 @@
       <c r="E225" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F225" s="217"/>
-      <c r="G225" s="219"/>
-      <c r="H225" s="219"/>
+      <c r="F225" s="212"/>
+      <c r="G225" s="218"/>
+      <c r="H225" s="218"/>
     </row>
     <row r="226" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
@@ -83885,6 +83885,53 @@
     <row r="296" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="H199:H200"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
     <mergeCell ref="A223:B223"/>
     <mergeCell ref="H224:H225"/>
     <mergeCell ref="C199:E199"/>
@@ -83901,53 +83948,6 @@
     <mergeCell ref="A207:B207"/>
     <mergeCell ref="A208:A209"/>
     <mergeCell ref="B208:B209"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="H199:H200"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G137:G138"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -83983,8 +83983,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="225"/>
-      <c r="B1" s="225"/>
+      <c r="A1" s="228"/>
+      <c r="B1" s="228"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -83993,10 +83993,10 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="227" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="224"/>
+      <c r="B2" s="227"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -84005,30 +84005,30 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="226" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="234" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="232"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="235"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="230" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="218" t="s">
+      <c r="H3" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="230"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="6" t="s">
         <v>217</v>
       </c>
@@ -84038,9 +84038,9 @@
       <c r="E4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -85248,10 +85248,10 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="224" t="s">
+      <c r="A49" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="B49" s="224"/>
+      <c r="B49" s="227"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
@@ -85263,24 +85263,24 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="213" t="s">
+      <c r="A50" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="213" t="s">
+      <c r="B50" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D50" s="215"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="234" t="s">
+      <c r="D50" s="223"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="230" t="s">
         <v>279</v>
       </c>
-      <c r="G50" s="218" t="s">
+      <c r="G50" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H50" s="218" t="s">
+      <c r="H50" s="217" t="s">
         <v>156</v>
       </c>
       <c r="I50" s="3"/>
@@ -85288,8 +85288,8 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="214"/>
-      <c r="B51" s="214"/>
+      <c r="A51" s="222"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="6" t="s">
         <v>217</v>
       </c>
@@ -85299,9 +85299,9 @@
       <c r="E51" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="235"/>
-      <c r="G51" s="219"/>
-      <c r="H51" s="219"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="218"/>
+      <c r="H51" s="218"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -86363,6 +86363,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G50:G51"/>
@@ -86373,11 +86378,6 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.51181102362204722" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -86415,8 +86415,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="225"/>
-      <c r="B1" s="225"/>
+      <c r="A1" s="228"/>
+      <c r="B1" s="228"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -86432,10 +86432,10 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="227" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="224"/>
+      <c r="B2" s="227"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -86451,24 +86451,24 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="230" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="218" t="s">
+      <c r="H3" s="217" t="s">
         <v>156</v>
       </c>
       <c r="I3" s="3"/>
@@ -86480,8 +86480,8 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="222"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="6" t="s">
         <v>217</v>
       </c>
@@ -86491,9 +86491,9 @@
       <c r="E4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -88460,15 +88460,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="B74:F74"/>
     <mergeCell ref="I74:K74"/>
@@ -88479,6 +88470,15 @@
     <mergeCell ref="B78:F78"/>
     <mergeCell ref="B79:F79"/>
     <mergeCell ref="B80:F80"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -88510,8 +88510,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="225"/>
-      <c r="B1" s="225"/>
+      <c r="A1" s="228"/>
+      <c r="B1" s="228"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -88519,10 +88519,10 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="227" t="s">
         <v>561</v>
       </c>
-      <c r="B2" s="224"/>
+      <c r="B2" s="227"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
@@ -88531,30 +88531,30 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="221" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="223" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="234" t="s">
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="230" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="218" t="s">
+      <c r="G3" s="217" t="s">
         <v>391</v>
       </c>
-      <c r="H3" s="218" t="s">
+      <c r="H3" s="217" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
+      <c r="A4" s="222"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="6" t="s">
         <v>217</v>
       </c>
@@ -88564,9 +88564,9 @@
       <c r="E4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
